--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\public works\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA71A6C7-A832-424C-96FD-FD2D979EACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3734AF-A0DF-4ED5-B937-75E9B1E4C2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\public works\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3734AF-A0DF-4ED5-B937-75E9B1E4C2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE7C9E3-74F6-460D-89A9-E6F14A45F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="7200" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,9 +365,6 @@
     <t>Alita Howard</t>
   </si>
   <si>
-    <t>Dr. Heather Huson and Dr. Srikanth Krisnamoorthy</t>
-  </si>
-  <si>
     <t>Cornell Dept. of Animal Science</t>
   </si>
   <si>
@@ -380,22 +377,25 @@
     <t>Chess on Ice: The Science, Strategy, and History of Curling</t>
   </si>
   <si>
-    <t>Balto, Elite Sled Dog and Hero of the 1925 Serum Run to Nome, Alaska: A story of a dog through his genome</t>
-  </si>
-  <si>
-    <t>Details coming soon!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Details coming soon, but here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
-  </si>
-  <si>
     <t>With a global population approaching 10 billion people, how can we bring Earth’s population to the living standards of the United States and/or the European Union while simultaneously reducing greenhouse gas emissions? In this talk, Dr. Hawkins will introduce the audience to the nuanced challenge of simultaneously tackling climate change while expanding access to energy infrastructure in under-developed regions of the world. Topics will include limitations of intermittent electricity suppliers, options for baseload power generators, and the potential of geothermal energy to transform global energy infrastructure, including the Earth Source Heat project at Cornell University.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt;  &lt;img src="images/hawkinsbanner.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
   <si>
     <t>In 2024 the Europa Clipper will launch on a SpaceX Falcon Heavy rocket to begin its five and half year trip to Jupiter, where it will study the icy ocean world of Europa (which is one of the best bets for alien life in our own solar system!). But for quite some time, NASA mission planners had to allow for the possibility of launching on both the Falcon Heavy and the United Launch Alliance Space Launch System (SLS). Why? Because the SLS had friends in congress, of course. In this talk, we'll learn about how congressional politics can make life hell for mission planning, why NASA missions are so expensive, what single points of failure are, and why the indecision of launch vehicles can burn unbelievable sums of money. We'll also look at the Galileo spacecraft as a cautionary tale about changing mission parameters late in the game.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt;  &lt;img src="images/ulibarri.png" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Finger Lakes Curling Board Member</t>
+  </si>
+  <si>
+    <t>Dr. Heather Huson and Dr. Srikanth Krishnamoorthy</t>
+  </si>
+  <si>
+    <t>The Story of Balto, an Elite Sled Dog: Through his Genome</t>
+  </si>
+  <si>
+    <t>Almost 100 years ago, Balto, along with a pack of elite sled dogs helped save the community of Nome, Alaska, from a diphtheria outbreak. Balto is representative of the sled dogs of the era who were reputed for their hardiness, endurance, and tolerance of harsh conditions at a time when northern communities relied on them for transportation, protection, and companionship. Unlike modern breeds, Balto and his contemporaries were products of generations of mating of diverse, outbred dogs selected for their performance and hardiness.  Today, Balto is immortalized with a statue in Central Park and is physically preserved and on display at the Cleaveland Museum of Natural History. We asked ourselves, could we use advances in genomic technologies and ancient DNA recovery techniques to parse through Balto’s DNA and understand selection emphasis and diversity occurring in sled dogs in the 1930’s? Could we decipher Balto’s physical appearance from his DNA and identify healthy developmental gene variants that may have endowed sled dogs in that era with abilities to withstand and thrive in harsh environments? Could we use our findings to guide modern breeders to breed healthier dogs? &lt;br&gt;&lt;br&gt;Also, here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you seen curling on TV, that weird game with stones, and brooms, and people yelling at each other on ice?  Maybe you caught the fever back in 2018, watching the Men’s curling team win USA’s first gold medal in the sport, saw it in a movie, or have visited Canada at any point in your life.  Alita started curling with the Finger Lakes Curling Club in 2018 after taking one of the first Learn to Curl’s, soon after the club’s founding.  She currently skips, is an instructor, volunteers on the club’s board, and travels to friendlies and bonspiels to compete and meet other curlers.  In a Public Works’ version of broomstacking, Alita will talk about the history, explain the types and rules of curling, and delve a little into the science, all while taking part in a major part of curling: drinking beverages. </t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1221,7 @@
         <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1313,19 +1313,19 @@
         <v>2023</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1339,22 +1339,23 @@
         <v>2023</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
         <v>110</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>112</v>
       </c>
-      <c r="G23" t="s">
-        <v>114</v>
-      </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\public works\ithacapublicworks.github.io\generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE7C9E3-74F6-460D-89A9-E6F14A45F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09955A5-1C5F-4C64-88DB-D8B6E236C0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="131">
   <si>
     <t>speaker</t>
   </si>
@@ -396,6 +396,39 @@
   </si>
   <si>
     <t xml:space="preserve">Have you seen curling on TV, that weird game with stones, and brooms, and people yelling at each other on ice?  Maybe you caught the fever back in 2018, watching the Men’s curling team win USA’s first gold medal in the sport, saw it in a movie, or have visited Canada at any point in your life.  Alita started curling with the Finger Lakes Curling Club in 2018 after taking one of the first Learn to Curl’s, soon after the club’s founding.  She currently skips, is an instructor, volunteers on the club’s board, and travels to friendlies and bonspiels to compete and meet other curlers.  In a Public Works’ version of broomstacking, Alita will talk about the history, explain the types and rules of curling, and delve a little into the science, all while taking part in a major part of curling: drinking beverages. </t>
+  </si>
+  <si>
+    <t>October 4th</t>
+  </si>
+  <si>
+    <t>Adam Howell</t>
+  </si>
+  <si>
+    <t>Everyone is aware of the price of food – from kitchen tables to restaurant counters, food costs impact our lives in profound ways. But another, less understood cost associated with our food is born out of the pressures faced by farmers as they struggle to succeed working in one of the most unforgiving industries in America. Farmers deal with numerous stressors outside of their control including market pressures, weather, price increases, supplies, and many more. Furthermore, farmers deal with the geographic challenge of being isolated from support services in rural areas, and cultural/psychological challenges stemming from personal stigmas against seeking help.&lt;br&gt;&lt;br&gt;In this Public Works talk, learn about a unique program in NYS that provides free, confidential support for farmers to help with any number of issues they may face. NY FarmNet approaches farm assistance and support through a “holistic” model by deploying a consultant team representing both the personal and financial aspects of every challenge.</t>
+  </si>
+  <si>
+    <t>For Whom the Dinner Bell Tolls: The Struggles of America’s Farming Community and How NY FarmNet Helps</t>
+  </si>
+  <si>
+    <t>an agriculture</t>
+  </si>
+  <si>
+    <t>Outreach Director, FarmNet Cornell</t>
+  </si>
+  <si>
+    <t>Jimmy Jordan</t>
+  </si>
+  <si>
+    <t>Columnist at Ithaca Voice</t>
+  </si>
+  <si>
+    <t>a journalism</t>
+  </si>
+  <si>
+    <t>Where the Media Death Spiral Brought Us: The Decline of Local Reporting, and an Industry Looking for its Footing</t>
+  </si>
+  <si>
+    <t>Details coming soon!</t>
   </si>
 </sst>
 </file>
@@ -452,7 +485,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -748,15 +781,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -782,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -808,7 +841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -834,7 +867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -860,7 +893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -886,7 +919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -912,7 +945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -938,7 +971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -964,7 +997,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -990,7 +1023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1016,7 +1049,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1042,7 +1075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1068,7 +1101,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1094,7 +1127,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1120,7 +1153,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1146,7 +1179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1172,7 +1205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1198,7 +1231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1224,7 +1257,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1250,7 +1283,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1276,7 +1309,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1302,7 +1335,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>11</v>
       </c>
@@ -1328,7 +1361,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1352,6 +1385,58 @@
       </c>
       <c r="H23" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>2023</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25">
+        <v>2023</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09955A5-1C5F-4C64-88DB-D8B6E236C0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AD3302-B203-4BA3-A34A-4669DD08DBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -428,7 +428,7 @@
     <t>Where the Media Death Spiral Brought Us: The Decline of Local Reporting, and an Industry Looking for its Footing</t>
   </si>
   <si>
-    <t>Details coming soon!</t>
+    <t xml:space="preserve">The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting. </t>
   </si>
 </sst>
 </file>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1398,19 +1398,19 @@
         <v>2023</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1424,19 +1424,19 @@
         <v>2023</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AD3302-B203-4BA3-A34A-4669DD08DBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30479D16-B9AF-4194-B60B-52645FF674EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30479D16-B9AF-4194-B60B-52645FF674EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5935F672-DA9F-4FBB-97DF-0A0F17408BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
   <si>
     <t>speaker</t>
   </si>
@@ -429,6 +429,30 @@
   </si>
   <si>
     <t xml:space="preserve">The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting. </t>
+  </si>
+  <si>
+    <t>November 1st</t>
+  </si>
+  <si>
+    <t>Madison Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Andres Montealegre</t>
+  </si>
+  <si>
+    <t>PhD Candidate in the Cornell Psychology Dept.</t>
+  </si>
+  <si>
+    <t>Writer and Brand Manager</t>
+  </si>
+  <si>
+    <t>a publishing</t>
+  </si>
+  <si>
+    <t>ghost writing</t>
+  </si>
+  <si>
+    <t>psychology</t>
   </si>
 </sst>
 </file>
@@ -781,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1439,6 +1463,52 @@
         <v>122</v>
       </c>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26">
+        <v>2023</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27">
+        <v>2023</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5935F672-DA9F-4FBB-97DF-0A0F17408BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C778C2-280D-4477-9D55-D369F77E37B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C778C2-280D-4477-9D55-D369F77E37B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39474DA9-6392-47B9-9316-34A4C4638A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="140">
   <si>
     <t>speaker</t>
   </si>
@@ -446,13 +446,16 @@
     <t>Writer and Brand Manager</t>
   </si>
   <si>
-    <t>a publishing</t>
-  </si>
-  <si>
-    <t>ghost writing</t>
-  </si>
-  <si>
-    <t>psychology</t>
+    <t>a ghost writing</t>
+  </si>
+  <si>
+    <t>a psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Title coming soon!</t>
   </si>
 </sst>
 </file>
@@ -807,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,7 +1486,10 @@
         <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="H26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1503,9 +1509,12 @@
         <v>134</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" t="s">
         <v>138</v>
       </c>
     </row>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39474DA9-6392-47B9-9316-34A4C4638A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FB780F-BA03-4DBE-9938-A37CDB59B5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -446,9 +446,6 @@
     <t>Writer and Brand Manager</t>
   </si>
   <si>
-    <t>a ghost writing</t>
-  </si>
-  <si>
     <t>a psychology</t>
   </si>
   <si>
@@ -456,6 +453,9 @@
   </si>
   <si>
     <t>Title coming soon!</t>
+  </si>
+  <si>
+    <t>a ghostwriting</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,13 +1483,13 @@
         <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1509,13 +1509,13 @@
         <v>134</v>
       </c>
       <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" t="s">
         <v>137</v>
-      </c>
-      <c r="G27" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\public works\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE7C9E3-74F6-460D-89A9-E6F14A45F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D14E38-A584-4C75-8E9C-440C62B7A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
   <si>
     <t>speaker</t>
   </si>
@@ -392,10 +392,79 @@
     <t>The Story of Balto, an Elite Sled Dog: Through his Genome</t>
   </si>
   <si>
-    <t>Almost 100 years ago, Balto, along with a pack of elite sled dogs helped save the community of Nome, Alaska, from a diphtheria outbreak. Balto is representative of the sled dogs of the era who were reputed for their hardiness, endurance, and tolerance of harsh conditions at a time when northern communities relied on them for transportation, protection, and companionship. Unlike modern breeds, Balto and his contemporaries were products of generations of mating of diverse, outbred dogs selected for their performance and hardiness.  Today, Balto is immortalized with a statue in Central Park and is physically preserved and on display at the Cleaveland Museum of Natural History. We asked ourselves, could we use advances in genomic technologies and ancient DNA recovery techniques to parse through Balto’s DNA and understand selection emphasis and diversity occurring in sled dogs in the 1930’s? Could we decipher Balto’s physical appearance from his DNA and identify healthy developmental gene variants that may have endowed sled dogs in that era with abilities to withstand and thrive in harsh environments? Could we use our findings to guide modern breeders to breed healthier dogs? &lt;br&gt;&lt;br&gt;Also, here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Have you seen curling on TV, that weird game with stones, and brooms, and people yelling at each other on ice?  Maybe you caught the fever back in 2018, watching the Men’s curling team win USA’s first gold medal in the sport, saw it in a movie, or have visited Canada at any point in your life.  Alita started curling with the Finger Lakes Curling Club in 2018 after taking one of the first Learn to Curl’s, soon after the club’s founding.  She currently skips, is an instructor, volunteers on the club’s board, and travels to friendlies and bonspiels to compete and meet other curlers.  In a Public Works’ version of broomstacking, Alita will talk about the history, explain the types and rules of curling, and delve a little into the science, all while taking part in a major part of curling: drinking beverages. </t>
+  </si>
+  <si>
+    <t>Almost 100 years ago, Balto, along with a pack of elite sled dogs helped save the community of Nome, Alaska, from a diphtheria outbreak. Balto is representative of the sled dogs of the era who were reputed for their hardiness, endurance, and tolerance of harsh conditions at a time when northern communities relied on them for transportation, protection, and companionship. Unlike modern breeds, Balto and his contemporaries were products of generations of mating of diverse, outbred dogs selected for their performance and hardiness.  Today, Balto is immortalized with a statue in Central Park and is physically preserved and on display at the Cleveland Museum of Natural History. We asked ourselves, could we use advances in genomic technologies and ancient DNA recovery techniques to parse through Balto’s DNA and understand selection emphasis and diversity occurring in sled dogs in the 1930’s? Could we decipher Balto’s physical appearance from his DNA and identify healthy developmental gene variants that may have endowed sled dogs in that era with abilities to withstand and thrive in harsh environments? Could we use our findings to guide modern breeders to breed healthier dogs? &lt;br&gt;&lt;br&gt;Also, here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>hashcode</t>
+  </si>
+  <si>
+    <t>sethkorproski</t>
+  </si>
+  <si>
+    <t>zachulibarri</t>
+  </si>
+  <si>
+    <t>evesnyder</t>
+  </si>
+  <si>
+    <t>jamesnagy</t>
+  </si>
+  <si>
+    <t>benfried</t>
+  </si>
+  <si>
+    <t>ligiacoelho</t>
+  </si>
+  <si>
+    <t>meganbarrington</t>
+  </si>
+  <si>
+    <t>sethstrickland</t>
+  </si>
+  <si>
+    <t>danielasamur</t>
+  </si>
+  <si>
+    <t>lukekeller</t>
+  </si>
+  <si>
+    <t>hunteradams</t>
+  </si>
+  <si>
+    <t>michaelcaporizzo</t>
+  </si>
+  <si>
+    <t>mollyryan</t>
+  </si>
+  <si>
+    <t>karlsmolenski</t>
+  </si>
+  <si>
+    <t>daisyrosas</t>
+  </si>
+  <si>
+    <t>alisonritterhaus</t>
+  </si>
+  <si>
+    <t>zachulibarri2</t>
+  </si>
+  <si>
+    <t>adamhawkins</t>
+  </si>
+  <si>
+    <t>jayleeming</t>
+  </si>
+  <si>
+    <t>danielsprocket</t>
+  </si>
+  <si>
+    <t>heatherhuson</t>
+  </si>
+  <si>
+    <t>alitahoward</t>
   </si>
 </sst>
 </file>
@@ -748,15 +817,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -781,8 +856,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -807,8 +885,11 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -833,8 +914,11 @@
       <c r="H3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -859,8 +943,11 @@
       <c r="H4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -885,8 +972,11 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -911,8 +1001,11 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -937,8 +1030,11 @@
       <c r="H7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -963,8 +1059,11 @@
       <c r="H8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -989,8 +1088,11 @@
       <c r="H9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1015,8 +1117,11 @@
       <c r="H10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1041,8 +1146,11 @@
       <c r="H11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1067,8 +1175,11 @@
       <c r="H12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1093,8 +1204,11 @@
       <c r="H13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1119,8 +1233,11 @@
       <c r="H14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1145,8 +1262,11 @@
       <c r="H15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1171,8 +1291,11 @@
       <c r="H16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1197,8 +1320,11 @@
       <c r="H17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1223,8 +1349,11 @@
       <c r="H18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1249,8 +1378,11 @@
       <c r="H19" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1275,8 +1407,11 @@
       <c r="H20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1301,8 +1436,11 @@
       <c r="H21" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -1325,10 +1463,13 @@
         <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="I22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1351,7 +1492,10 @@
         <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="I23" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\public works\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FB780F-BA03-4DBE-9938-A37CDB59B5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFBC8D5-BB49-41CB-AD72-530F6DAE6462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="167">
   <si>
     <t>speaker</t>
   </si>
@@ -456,6 +456,87 @@
   </si>
   <si>
     <t>a ghostwriting</t>
+  </si>
+  <si>
+    <t>hashcode</t>
+  </si>
+  <si>
+    <t>zachulibarri</t>
+  </si>
+  <si>
+    <t>evesnyder</t>
+  </si>
+  <si>
+    <t>jamesnagy</t>
+  </si>
+  <si>
+    <t>benfried</t>
+  </si>
+  <si>
+    <t>ligiacoelho</t>
+  </si>
+  <si>
+    <t>meganbarrington</t>
+  </si>
+  <si>
+    <t>sethstrickland</t>
+  </si>
+  <si>
+    <t>danielasamur</t>
+  </si>
+  <si>
+    <t>lukekeller</t>
+  </si>
+  <si>
+    <t>hunteradams</t>
+  </si>
+  <si>
+    <t>michaelcaporizzo</t>
+  </si>
+  <si>
+    <t>mollyryan</t>
+  </si>
+  <si>
+    <t>karlsmolenski</t>
+  </si>
+  <si>
+    <t>daisyrosas</t>
+  </si>
+  <si>
+    <t>alisonritterhaus</t>
+  </si>
+  <si>
+    <t>zachulibarri2</t>
+  </si>
+  <si>
+    <t>adamhawkins</t>
+  </si>
+  <si>
+    <t>jayleeming</t>
+  </si>
+  <si>
+    <t>danielsprocket</t>
+  </si>
+  <si>
+    <t>heatherhuson</t>
+  </si>
+  <si>
+    <t>alitahoward</t>
+  </si>
+  <si>
+    <t>jimmyjordan</t>
+  </si>
+  <si>
+    <t>adamhowell</t>
+  </si>
+  <si>
+    <t>madisonfitzpatrick</t>
+  </si>
+  <si>
+    <t>andresmontealegre</t>
+  </si>
+  <si>
+    <t>sethkoproski</t>
   </si>
 </sst>
 </file>
@@ -491,9 +572,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +594,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -808,15 +890,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +926,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -867,8 +955,11 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -893,8 +984,11 @@
       <c r="H3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -919,8 +1013,11 @@
       <c r="H4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -945,8 +1042,11 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -971,8 +1071,11 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -997,8 +1100,11 @@
       <c r="H7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1023,8 +1129,11 @@
       <c r="H8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1049,8 +1158,11 @@
       <c r="H9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1075,8 +1187,11 @@
       <c r="H10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1101,8 +1216,11 @@
       <c r="H11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1127,8 +1245,11 @@
       <c r="H12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1153,8 +1274,11 @@
       <c r="H13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1179,8 +1303,11 @@
       <c r="H14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1205,8 +1332,11 @@
       <c r="H15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1231,8 +1361,11 @@
       <c r="H16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1257,8 +1390,11 @@
       <c r="H17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1283,8 +1419,11 @@
       <c r="H18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1309,8 +1448,11 @@
       <c r="H19" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1335,8 +1477,11 @@
       <c r="H20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1361,8 +1506,11 @@
       <c r="H21" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -1387,8 +1535,11 @@
       <c r="H22" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1413,8 +1564,11 @@
       <c r="H23" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1439,8 +1593,11 @@
       <c r="H24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -1465,8 +1622,11 @@
       <c r="H25" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1491,8 +1651,11 @@
       <c r="H26" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1516,6 +1679,9 @@
       </c>
       <c r="H27" t="s">
         <v>137</v>
+      </c>
+      <c r="I27" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\public works\ithacapublicworks.github.io\generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFBC8D5-BB49-41CB-AD72-530F6DAE6462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE04DE62-7756-4052-94E3-3A0C6E38BF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="169">
   <si>
     <t>speaker</t>
   </si>
@@ -449,12 +449,6 @@
     <t>a psychology</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Title coming soon!</t>
-  </si>
-  <si>
     <t>a ghostwriting</t>
   </si>
   <si>
@@ -537,6 +531,18 @@
   </si>
   <si>
     <t>sethkoproski</t>
+  </si>
+  <si>
+    <t>Ghostwriting: An Insider's View of an Invisible Profession</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ever wonder how others perceive you based on your actions? We all do. Shockingly, recent studies in psychology reveal we're often quite mistaken about these perceptions. For example, people think they're less liked by others than they actually are, or they assume others aren't interested in their unsolicited advice when in fact they are. Such findings could help us get along better with others. But how accurate are these studies? And is it possible that participants in these studies are just trying to appear 'nice' when answering research questions? In this talk, I'll share my own research on this topic and discuss if we should take these findings at face value. Join me to discuss the fascinating, messy world of how we're seen by others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ghostwriting often gets a bad rap as a cop-out for politicians and celebrities who are too lazy to write their own books. But the truth is, ghostwriting is more common than ever, and for many authors, it's no longer the shameful secret it once was. So, who actually hires ghostwriters? What do ghostwriters really do? And what's the future of this ancient profession in a world of generative AI? </t>
+  </si>
+  <si>
+    <t>Can You Accurately Perceive How Others Think About You?</t>
   </si>
 </sst>
 </file>
@@ -572,10 +578,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +599,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -892,16 +897,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -926,11 +932,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -955,11 +961,11 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -984,11 +990,11 @@
       <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1013,11 +1019,11 @@
       <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1042,11 +1048,11 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1071,11 +1077,11 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1100,11 +1106,11 @@
       <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1129,11 +1135,11 @@
       <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1158,11 +1164,11 @@
       <c r="H9" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1187,11 +1193,11 @@
       <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1216,11 +1222,11 @@
       <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1245,11 +1251,11 @@
       <c r="H12" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1274,11 +1280,11 @@
       <c r="H13" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1303,11 +1309,11 @@
       <c r="H14" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1332,11 +1338,11 @@
       <c r="H15" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1361,11 +1367,11 @@
       <c r="H16" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1390,11 +1396,11 @@
       <c r="H17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1419,11 +1425,11 @@
       <c r="H18" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1448,11 +1454,11 @@
       <c r="H19" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1477,11 +1483,11 @@
       <c r="H20" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1506,11 +1512,11 @@
       <c r="H21" t="s">
         <v>105</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>11</v>
       </c>
@@ -1535,11 +1541,11 @@
       <c r="H22" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1564,11 +1570,11 @@
       <c r="H23" t="s">
         <v>119</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1594,10 +1600,10 @@
         <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>12</v>
       </c>
@@ -1623,10 +1629,10 @@
         <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1643,19 +1649,19 @@
         <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="I26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1675,13 +1681,13 @@
         <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="H27" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="I27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE04DE62-7756-4052-94E3-3A0C6E38BF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6823ABC2-4853-40DA-8FD9-95E5D0696E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -437,9 +437,6 @@
     <t>Madison Fitzpatrick</t>
   </si>
   <si>
-    <t>Andres Montealegre</t>
-  </si>
-  <si>
     <t>PhD Candidate in the Cornell Psychology Dept.</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>Can You Accurately Perceive How Others Think About You?</t>
+  </si>
+  <si>
+    <t>Andrés Montealegre</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -962,7 +962,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1020,7 +1020,7 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1049,7 +1049,7 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1078,7 +1078,7 @@
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1107,7 +1107,7 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1136,7 +1136,7 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1165,7 +1165,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1194,7 +1194,7 @@
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1223,7 +1223,7 @@
         <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1252,7 +1252,7 @@
         <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1310,7 +1310,7 @@
         <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1339,7 +1339,7 @@
         <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1368,7 +1368,7 @@
         <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1397,7 +1397,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1426,7 +1426,7 @@
         <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1455,7 +1455,7 @@
         <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1484,7 +1484,7 @@
         <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1513,7 +1513,7 @@
         <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1542,7 +1542,7 @@
         <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1571,7 +1571,7 @@
         <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1600,7 +1600,7 @@
         <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1629,7 +1629,7 @@
         <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1646,19 +1646,19 @@
         <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1672,22 +1672,22 @@
         <v>2023</v>
       </c>
       <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
         <v>133</v>
       </c>
-      <c r="E27" t="s">
-        <v>134</v>
-      </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6823ABC2-4853-40DA-8FD9-95E5D0696E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77933DF3-3415-4CC2-A961-28DF01C4DB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
   <si>
     <t>speaker</t>
   </si>
@@ -543,6 +543,45 @@
   </si>
   <si>
     <t>Andrés Montealegre</t>
+  </si>
+  <si>
+    <t>December 6th</t>
+  </si>
+  <si>
+    <t>Not All is Lost: How Public Gardens are (Attempting to) Save the World</t>
+  </si>
+  <si>
+    <t>Do you find yourself freaking out over the state of the global environment, climate change, and loss of biodiversity? If so, you’re not alone- eco-anxiety has become one of the leading mental health issues in the third decade of the 21st century. Public gardens, which include botanic gardens, arboreta, conservatories, and historic landscapes, are addressing these seemingly overwhelming environmental challenges through their extensive collections, protection of natural areas, preservation of endangered species, and through programming and messaging. Will public gardens single-handedly solve all of these problems? No, but they can be a significant contributor to the solutions. In this talk you’ll learn some of the ways they are making a difference.</t>
+  </si>
+  <si>
+    <t>Dr. Donald A. Rakow</t>
+  </si>
+  <si>
+    <t>a Classics and philosophy</t>
+  </si>
+  <si>
+    <t>Title Coming Soon!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Dr. Toni Alimi</t>
+  </si>
+  <si>
+    <t>donaldarakow</t>
+  </si>
+  <si>
+    <t>tonialimi</t>
+  </si>
+  <si>
+    <t>a community horticulture</t>
+  </si>
+  <si>
+    <t>Klarman Postdoctoral Fellow in Classics and Philosophy at Cornell University</t>
+  </si>
+  <si>
+    <t>Associate Professor (retired) in the  School of Integrative Plant Science at Cornell University</t>
   </si>
 </sst>
 </file>
@@ -578,9 +617,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1690,6 +1732,64 @@
         <v>162</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28">
+        <v>2023</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29">
+        <v>2023</v>
+      </c>
+      <c r="D29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77933DF3-3415-4CC2-A961-28DF01C4DB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD65FD0-7361-4A74-884C-6003CB4C6571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -551,21 +551,12 @@
     <t>Not All is Lost: How Public Gardens are (Attempting to) Save the World</t>
   </si>
   <si>
-    <t>Do you find yourself freaking out over the state of the global environment, climate change, and loss of biodiversity? If so, you’re not alone- eco-anxiety has become one of the leading mental health issues in the third decade of the 21st century. Public gardens, which include botanic gardens, arboreta, conservatories, and historic landscapes, are addressing these seemingly overwhelming environmental challenges through their extensive collections, protection of natural areas, preservation of endangered species, and through programming and messaging. Will public gardens single-handedly solve all of these problems? No, but they can be a significant contributor to the solutions. In this talk you’ll learn some of the ways they are making a difference.</t>
-  </si>
-  <si>
     <t>Dr. Donald A. Rakow</t>
   </si>
   <si>
     <t>a Classics and philosophy</t>
   </si>
   <si>
-    <t>Title Coming Soon!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Dr. Toni Alimi</t>
   </si>
   <si>
@@ -582,6 +573,15 @@
   </si>
   <si>
     <t>Associate Professor (retired) in the  School of Integrative Plant Science at Cornell University</t>
+  </si>
+  <si>
+    <t>Justifying Slavery: The Intellectual Background of the Reconstruction Amendments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recent appraisals of the Thirteenth Amendment to the United States Constitution often note with alarm that slavery remains a legal form of punishment and lament for how this loophole has been weaponized against black Americans. I’m interested in how this alarm reflects an Aristotelian attitude towards slavery (more on what that means in the talk!), and about how an intellectual history of various justifications for slavery can help us understand what’s going on in the Thirteenth Amendment.</t>
+  </si>
+  <si>
+    <t>Do you find yourself freaking out over the state of the global environment, climate change, and loss of biodiversity? If so, you’re not alone — eco-anxiety has become one of the leading mental health issues in the third decade of the 21st century. Public gardens, which include botanic gardens, arboreta, conservatories, and historic landscapes, are addressing these seemingly overwhelming environmental challenges through their extensive collections, protection of natural areas, preservation of endangered species, and through programming and messaging. Will public gardens single-handedly solve all of these problems? No, but they can be a significant contributor to the solutions. In this talk you’ll learn some of the ways they are making a difference.</t>
   </si>
 </sst>
 </file>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1743,22 +1743,22 @@
         <v>2023</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G28" t="s">
         <v>170</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1772,22 +1772,22 @@
         <v>2023</v>
       </c>
       <c r="D29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" t="s">
         <v>180</v>
       </c>
-      <c r="F29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>175</v>
-      </c>
-      <c r="I29" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD65FD0-7361-4A74-884C-6003CB4C6571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5932A2F-FC35-44A5-B0C0-2128BDDC6142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -428,9 +428,6 @@
     <t>Where the Media Death Spiral Brought Us: The Decline of Local Reporting, and an Industry Looking for its Footing</t>
   </si>
   <si>
-    <t xml:space="preserve">The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting. </t>
-  </si>
-  <si>
     <t>November 1st</t>
   </si>
   <si>
@@ -582,6 +579,9 @@
   </si>
   <si>
     <t>Do you find yourself freaking out over the state of the global environment, climate change, and loss of biodiversity? If so, you’re not alone — eco-anxiety has become one of the leading mental health issues in the third decade of the 21st century. Public gardens, which include botanic gardens, arboreta, conservatories, and historic landscapes, are addressing these seemingly overwhelming environmental challenges through their extensive collections, protection of natural areas, preservation of endangered species, and through programming and messaging. Will public gardens single-handedly solve all of these problems? No, but they can be a significant contributor to the solutions. In this talk you’ll learn some of the ways they are making a difference.</t>
+  </si>
+  <si>
+    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting. &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,7 +975,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1033,7 +1033,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1062,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1091,7 +1091,7 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1120,7 +1120,7 @@
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1149,7 +1149,7 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1178,7 +1178,7 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1207,7 +1207,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1236,7 +1236,7 @@
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1294,7 +1294,7 @@
         <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1323,7 +1323,7 @@
         <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1352,7 +1352,7 @@
         <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1381,7 +1381,7 @@
         <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1410,7 +1410,7 @@
         <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1439,7 +1439,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1468,7 +1468,7 @@
         <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1497,7 +1497,7 @@
         <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1526,7 +1526,7 @@
         <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1555,7 +1555,7 @@
         <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1584,7 +1584,7 @@
         <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1613,7 +1613,7 @@
         <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1639,10 +1639,10 @@
         <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="I24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1671,7 +1671,7 @@
         <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1679,28 +1679,28 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26">
+        <v>2023</v>
+      </c>
+      <c r="D26" t="s">
         <v>131</v>
       </c>
-      <c r="C26">
-        <v>2023</v>
-      </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1708,28 +1708,28 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27">
         <v>2023</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1737,28 +1737,28 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28">
+        <v>2023</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
         <v>169</v>
       </c>
-      <c r="C28">
-        <v>2023</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" t="s">
-        <v>170</v>
-      </c>
       <c r="H28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1766,28 +1766,28 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29">
         <v>2023</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G29" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" t="s">
         <v>179</v>
       </c>
-      <c r="H29" t="s">
-        <v>180</v>
-      </c>
       <c r="I29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5932A2F-FC35-44A5-B0C0-2128BDDC6142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF9B4A0-8C49-44FB-9273-E8DAF2A43772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -581,7 +581,7 @@
     <t>Do you find yourself freaking out over the state of the global environment, climate change, and loss of biodiversity? If so, you’re not alone — eco-anxiety has become one of the leading mental health issues in the third decade of the 21st century. Public gardens, which include botanic gardens, arboreta, conservatories, and historic landscapes, are addressing these seemingly overwhelming environmental challenges through their extensive collections, protection of natural areas, preservation of endangered species, and through programming and messaging. Will public gardens single-handedly solve all of these problems? No, but they can be a significant contributor to the solutions. In this talk you’ll learn some of the ways they are making a difference.</t>
   </si>
   <si>
-    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting. &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
+    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting. &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -940,7 +940,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF9B4A0-8C49-44FB-9273-E8DAF2A43772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65C95C8-5A0B-45F6-8A19-C0A3F34EE79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -581,7 +581,7 @@
     <t>Do you find yourself freaking out over the state of the global environment, climate change, and loss of biodiversity? If so, you’re not alone — eco-anxiety has become one of the leading mental health issues in the third decade of the 21st century. Public gardens, which include botanic gardens, arboreta, conservatories, and historic landscapes, are addressing these seemingly overwhelming environmental challenges through their extensive collections, protection of natural areas, preservation of endangered species, and through programming and messaging. Will public gardens single-handedly solve all of these problems? No, but they can be a significant contributor to the solutions. In this talk you’ll learn some of the ways they are making a difference.</t>
   </si>
   <si>
-    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting. &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
+    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -940,7 +940,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65C95C8-5A0B-45F6-8A19-C0A3F34EE79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEDCAA0-0F6F-4B55-AB19-7441237C7C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -404,9 +404,6 @@
     <t>Adam Howell</t>
   </si>
   <si>
-    <t>Everyone is aware of the price of food – from kitchen tables to restaurant counters, food costs impact our lives in profound ways. But another, less understood cost associated with our food is born out of the pressures faced by farmers as they struggle to succeed working in one of the most unforgiving industries in America. Farmers deal with numerous stressors outside of their control including market pressures, weather, price increases, supplies, and many more. Furthermore, farmers deal with the geographic challenge of being isolated from support services in rural areas, and cultural/psychological challenges stemming from personal stigmas against seeking help.&lt;br&gt;&lt;br&gt;In this Public Works talk, learn about a unique program in NYS that provides free, confidential support for farmers to help with any number of issues they may face. NY FarmNet approaches farm assistance and support through a “holistic” model by deploying a consultant team representing both the personal and financial aspects of every challenge.</t>
-  </si>
-  <si>
     <t>For Whom the Dinner Bell Tolls: The Struggles of America’s Farming Community and How NY FarmNet Helps</t>
   </si>
   <si>
@@ -530,12 +527,6 @@
     <t>Ghostwriting: An Insider's View of an Invisible Profession</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ever wonder how others perceive you based on your actions? We all do. Shockingly, recent studies in psychology reveal we're often quite mistaken about these perceptions. For example, people think they're less liked by others than they actually are, or they assume others aren't interested in their unsolicited advice when in fact they are. Such findings could help us get along better with others. But how accurate are these studies? And is it possible that participants in these studies are just trying to appear 'nice' when answering research questions? In this talk, I'll share my own research on this topic and discuss if we should take these findings at face value. Join me to discuss the fascinating, messy world of how we're seen by others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ghostwriting often gets a bad rap as a cop-out for politicians and celebrities who are too lazy to write their own books. But the truth is, ghostwriting is more common than ever, and for many authors, it's no longer the shameful secret it once was. So, who actually hires ghostwriters? What do ghostwriters really do? And what's the future of this ancient profession in a world of generative AI? </t>
-  </si>
-  <si>
     <t>Can You Accurately Perceive How Others Think About You?</t>
   </si>
   <si>
@@ -582,6 +573,15 @@
   </si>
   <si>
     <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Everyone is aware of the price of food – from kitchen tables to restaurant counters, food costs impact our lives in profound ways. But another, less understood cost associated with our food is born out of the pressures faced by farmers as they struggle to succeed working in one of the most unforgiving industries in America. Farmers deal with numerous stressors outside of their control including market pressures, weather, price increases, supplies, and many more. Furthermore, farmers deal with the geographic challenge of being isolated from support services in rural areas, and cultural/psychological challenges stemming from personal stigmas against seeking help.&lt;br&gt;&lt;br&gt;In this Public Works talk, learn about a unique program in NYS that provides free, confidential support for farmers to help with any number of issues they may face. NY FarmNet approaches farm assistance and support through a “holistic” model by deploying a consultant team representing both the personal and financial aspects of every challenge.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Adam_Howell_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ghostwriting often gets a bad rap as a cop-out for politicians and celebrities who are too lazy to write their own books. But the truth is, ghostwriting is more common than ever, and for many authors, it's no longer the shameful secret it once was. So, who actually hires ghostwriters? What do ghostwriters really do? And what's the future of this ancient profession in a world of generative AI?&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Nov_1_2023_Madison_Fitzpatrick_2.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ever wonder how others perceive you based on your actions? We all do. Shockingly, recent studies in psychology reveal we're often quite mistaken about these perceptions. For example, people think they're less liked by others than they actually are, or they assume others aren't interested in their unsolicited advice when in fact they are. Such findings could help us get along better with others. But how accurate are these studies? And is it possible that participants in these studies are just trying to appear 'nice' when answering research questions? In this talk, I'll share my own research on this topic and discuss if we should take these findings at face value. Join me to discuss the fascinating, messy world of how we're seen by others.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Nov_1_2023_Andres_Montealegre_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -940,7 +940,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,7 +975,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1033,7 +1033,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1062,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1091,7 +1091,7 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1120,7 +1120,7 @@
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1149,7 +1149,7 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1178,7 +1178,7 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1207,7 +1207,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1236,7 +1236,7 @@
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1294,7 +1294,7 @@
         <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1323,7 +1323,7 @@
         <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1352,7 +1352,7 @@
         <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1381,7 +1381,7 @@
         <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1410,7 +1410,7 @@
         <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1439,7 +1439,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1468,7 +1468,7 @@
         <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1497,7 +1497,7 @@
         <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1526,7 +1526,7 @@
         <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1555,7 +1555,7 @@
         <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1584,7 +1584,7 @@
         <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1613,7 +1613,7 @@
         <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1627,22 +1627,22 @@
         <v>2023</v>
       </c>
       <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" t="s">
         <v>126</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>127</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>128</v>
       </c>
-      <c r="G24" t="s">
-        <v>129</v>
-      </c>
       <c r="H24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1659,19 +1659,19 @@
         <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1679,28 +1679,28 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26">
+        <v>2023</v>
+      </c>
+      <c r="D26" t="s">
         <v>130</v>
       </c>
-      <c r="C26">
-        <v>2023</v>
-      </c>
-      <c r="D26" t="s">
-        <v>131</v>
-      </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="I26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1708,28 +1708,28 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27">
         <v>2023</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="I27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1737,28 +1737,28 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C28">
         <v>2023</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" t="s">
+        <v>177</v>
+      </c>
+      <c r="I28" t="s">
         <v>170</v>
-      </c>
-      <c r="E28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" t="s">
-        <v>180</v>
-      </c>
-      <c r="I28" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1766,28 +1766,28 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29">
+        <v>2023</v>
+      </c>
+      <c r="D29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" t="s">
         <v>168</v>
       </c>
-      <c r="C29">
-        <v>2023</v>
-      </c>
-      <c r="D29" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" t="s">
         <v>176</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>171</v>
-      </c>
-      <c r="G29" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" t="s">
-        <v>179</v>
-      </c>
-      <c r="I29" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEDCAA0-0F6F-4B55-AB19-7441237C7C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210FCCBD-856D-4E47-8D5F-D73F61821E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="193">
   <si>
     <t>speaker</t>
   </si>
@@ -582,6 +582,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Ever wonder how others perceive you based on your actions? We all do. Shockingly, recent studies in psychology reveal we're often quite mistaken about these perceptions. For example, people think they're less liked by others than they actually are, or they assume others aren't interested in their unsolicited advice when in fact they are. Such findings could help us get along better with others. But how accurate are these studies? And is it possible that participants in these studies are just trying to appear 'nice' when answering research questions? In this talk, I'll share my own research on this topic and discuss if we should take these findings at face value. Join me to discuss the fascinating, messy world of how we're seen by others.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Nov_1_2023_Andres_Montealegre_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>February 7th</t>
+  </si>
+  <si>
+    <t>Dr. Maddie Reynolds</t>
+  </si>
+  <si>
+    <t>Outreach and Information Services Librarian for the Cornell Prison Education Program</t>
+  </si>
+  <si>
+    <t>radical librarianship</t>
+  </si>
+  <si>
+    <t>Title coming soon!</t>
+  </si>
+  <si>
+    <t>mreynolds</t>
+  </si>
+  <si>
+    <t>Dr. Hadas Kress-Gazit</t>
+  </si>
+  <si>
+    <t>hkress-gazit</t>
+  </si>
+  <si>
+    <t>Geoffrey S.M. Hedrick Senior Endowed Professor of Mechanical and Aerospace Engineering</t>
+  </si>
+  <si>
+    <t>robotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -937,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1790,6 +1823,64 @@
         <v>171</v>
       </c>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30">
+        <v>2024</v>
+      </c>
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31">
+        <v>2024</v>
+      </c>
+      <c r="D31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210FCCBD-856D-4E47-8D5F-D73F61821E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291A1B2-8FF8-41E4-AC65-B2086A9DA14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -575,15 +576,6 @@
     <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
   </si>
   <si>
-    <t>Everyone is aware of the price of food – from kitchen tables to restaurant counters, food costs impact our lives in profound ways. But another, less understood cost associated with our food is born out of the pressures faced by farmers as they struggle to succeed working in one of the most unforgiving industries in America. Farmers deal with numerous stressors outside of their control including market pressures, weather, price increases, supplies, and many more. Furthermore, farmers deal with the geographic challenge of being isolated from support services in rural areas, and cultural/psychological challenges stemming from personal stigmas against seeking help.&lt;br&gt;&lt;br&gt;In this Public Works talk, learn about a unique program in NYS that provides free, confidential support for farmers to help with any number of issues they may face. NY FarmNet approaches farm assistance and support through a “holistic” model by deploying a consultant team representing both the personal and financial aspects of every challenge.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Adam_Howell_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ghostwriting often gets a bad rap as a cop-out for politicians and celebrities who are too lazy to write their own books. But the truth is, ghostwriting is more common than ever, and for many authors, it's no longer the shameful secret it once was. So, who actually hires ghostwriters? What do ghostwriters really do? And what's the future of this ancient profession in a world of generative AI?&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Nov_1_2023_Madison_Fitzpatrick_2.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ever wonder how others perceive you based on your actions? We all do. Shockingly, recent studies in psychology reveal we're often quite mistaken about these perceptions. For example, people think they're less liked by others than they actually are, or they assume others aren't interested in their unsolicited advice when in fact they are. Such findings could help us get along better with others. But how accurate are these studies? And is it possible that participants in these studies are just trying to appear 'nice' when answering research questions? In this talk, I'll share my own research on this topic and discuss if we should take these findings at face value. Join me to discuss the fascinating, messy world of how we're seen by others.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Nov_1_2023_Andres_Montealegre_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
-  </si>
-  <si>
     <t>February 7th</t>
   </si>
   <si>
@@ -615,6 +607,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ever wonder how others perceive you based on your actions? We all do. Shockingly, recent studies in psychology reveal we're often quite mistaken about these perceptions. For example, people think they're less liked by others than they actually are, or they assume others aren't interested in their unsolicited advice when in fact they are. Such findings could help us get along better with others. But how accurate are these studies? And is it possible that participants in these studies are just trying to appear 'nice' when answering research questions? In this talk, I'll share my own research on this topic and discuss if we should take these findings at face value. Join me to discuss the fascinating, messy world of how we're seen by others.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Nov_1_2023_Andres_Montealegre_1.jpg" class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ghostwriting often gets a bad rap as a cop-out for politicians and celebrities who are too lazy to write their own books. But the truth is, ghostwriting is more common than ever, and for many authors, it's no longer the shameful secret it once was. So, who actually hires ghostwriters? What do ghostwriters really do? And what's the future of this ancient profession in a world of generative AI?&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Nov_1_2023_Madison_Fitzpatrick_2.jpg"  class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Everyone is aware of the price of food – from kitchen tables to restaurant counters, food costs impact our lives in profound ways. But another, less understood cost associated with our food is born out of the pressures faced by farmers as they struggle to succeed working in one of the most unforgiving industries in America. Farmers deal with numerous stressors outside of their control including market pressures, weather, price increases, supplies, and many more. Furthermore, farmers deal with the geographic challenge of being isolated from support services in rural areas, and cultural/psychological challenges stemming from personal stigmas against seeking help.&lt;br&gt;&lt;br&gt;In this Public Works talk, learn about a unique program in NYS that provides free, confidential support for farmers to help with any number of issues they may face. NY FarmNet approaches farm assistance and support through a “holistic” model by deploying a consultant team representing both the personal and financial aspects of every challenge.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Adam_Howell_1.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -973,7 +974,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1701,7 +1702,7 @@
         <v>122</v>
       </c>
       <c r="H25" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I25" t="s">
         <v>158</v>
@@ -1730,7 +1731,7 @@
         <v>162</v>
       </c>
       <c r="H26" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I26" t="s">
         <v>159</v>
@@ -1759,7 +1760,7 @@
         <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="I27" t="s">
         <v>160</v>
@@ -1828,28 +1829,28 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C30">
         <v>2024</v>
       </c>
       <c r="D30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" t="s">
         <v>183</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" t="s">
         <v>184</v>
-      </c>
-      <c r="F30" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" t="s">
-        <v>192</v>
-      </c>
-      <c r="I30" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1857,28 +1858,28 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C31">
         <v>2024</v>
       </c>
       <c r="D31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" t="s">
         <v>188</v>
       </c>
-      <c r="E31" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" t="s">
-        <v>191</v>
-      </c>
       <c r="G31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" t="s">
         <v>186</v>
-      </c>
-      <c r="H31" t="s">
-        <v>192</v>
-      </c>
-      <c r="I31" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291A1B2-8FF8-41E4-AC65-B2086A9DA14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE1E8EE-4C11-4C2E-BE36-CBBEE490528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -393,9 +393,6 @@
     <t>The Story of Balto, an Elite Sled Dog: Through his Genome</t>
   </si>
   <si>
-    <t>Almost 100 years ago, Balto, along with a pack of elite sled dogs helped save the community of Nome, Alaska, from a diphtheria outbreak. Balto is representative of the sled dogs of the era who were reputed for their hardiness, endurance, and tolerance of harsh conditions at a time when northern communities relied on them for transportation, protection, and companionship. Unlike modern breeds, Balto and his contemporaries were products of generations of mating of diverse, outbred dogs selected for their performance and hardiness.  Today, Balto is immortalized with a statue in Central Park and is physically preserved and on display at the Cleaveland Museum of Natural History. We asked ourselves, could we use advances in genomic technologies and ancient DNA recovery techniques to parse through Balto’s DNA and understand selection emphasis and diversity occurring in sled dogs in the 1930’s? Could we decipher Balto’s physical appearance from his DNA and identify healthy developmental gene variants that may have endowed sled dogs in that era with abilities to withstand and thrive in harsh environments? Could we use our findings to guide modern breeders to breed healthier dogs? &lt;br&gt;&lt;br&gt;Also, here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Have you seen curling on TV, that weird game with stones, and brooms, and people yelling at each other on ice?  Maybe you caught the fever back in 2018, watching the Men’s curling team win USA’s first gold medal in the sport, saw it in a movie, or have visited Canada at any point in your life.  Alita started curling with the Finger Lakes Curling Club in 2018 after taking one of the first Learn to Curl’s, soon after the club’s founding.  She currently skips, is an instructor, volunteers on the club’s board, and travels to friendlies and bonspiels to compete and meet other curlers.  In a Public Works’ version of broomstacking, Alita will talk about the history, explain the types and rules of curling, and delve a little into the science, all while taking part in a major part of curling: drinking beverages. </t>
   </si>
   <si>
@@ -573,9 +570,6 @@
     <t>Do you find yourself freaking out over the state of the global environment, climate change, and loss of biodiversity? If so, you’re not alone — eco-anxiety has become one of the leading mental health issues in the third decade of the 21st century. Public gardens, which include botanic gardens, arboreta, conservatories, and historic landscapes, are addressing these seemingly overwhelming environmental challenges through their extensive collections, protection of natural areas, preservation of endangered species, and through programming and messaging. Will public gardens single-handedly solve all of these problems? No, but they can be a significant contributor to the solutions. In this talk you’ll learn some of the ways they are making a difference.</t>
   </si>
   <si>
-    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 550' class='center'&gt; &lt;/div&gt;</t>
-  </si>
-  <si>
     <t>February 7th</t>
   </si>
   <si>
@@ -616,6 +610,12 @@
   </si>
   <si>
     <t>Everyone is aware of the price of food – from kitchen tables to restaurant counters, food costs impact our lives in profound ways. But another, less understood cost associated with our food is born out of the pressures faced by farmers as they struggle to succeed working in one of the most unforgiving industries in America. Farmers deal with numerous stressors outside of their control including market pressures, weather, price increases, supplies, and many more. Furthermore, farmers deal with the geographic challenge of being isolated from support services in rural areas, and cultural/psychological challenges stemming from personal stigmas against seeking help.&lt;br&gt;&lt;br&gt;In this Public Works talk, learn about a unique program in NYS that provides free, confidential support for farmers to help with any number of issues they may face. NY FarmNet approaches farm assistance and support through a “holistic” model by deploying a consultant team representing both the personal and financial aspects of every challenge.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Adam_Howell_1.jpg" class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Almost 100 years ago, Balto, along with a pack of elite sled dogs helped save the community of Nome, Alaska, from a diphtheria outbreak. Balto is representative of the sled dogs of the era who were reputed for their hardiness, endurance, and tolerance of harsh conditions at a time when northern communities relied on them for transportation, protection, and companionship. Unlike modern breeds, Balto and his contemporaries were products of generations of mating of diverse, outbred dogs selected for their performance and hardiness.  Today, Balto is immortalized with a statue in Central Park and is physically preserved and on display at the Cleaveland Museum of Natural History. We asked ourselves, could we use advances in genomic technologies and ancient DNA recovery techniques to parse through Balto’s DNA and understand selection emphasis and diversity occurring in sled dogs in the 1930’s? Could we decipher Balto’s physical appearance from his DNA and identify healthy developmental gene variants that may have endowed sled dogs in that era with abilities to withstand and thrive in harsh environments? Could we use our findings to guide modern breeders to breed healthier dogs? &lt;br&gt;&lt;br&gt;Also, here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 250' class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,7 +1009,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1038,7 +1038,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1067,7 +1067,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1096,7 +1096,7 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1125,7 +1125,7 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1154,7 +1154,7 @@
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1183,7 +1183,7 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1212,7 +1212,7 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1241,7 +1241,7 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1270,7 +1270,7 @@
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1299,7 +1299,7 @@
         <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1328,7 +1328,7 @@
         <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1357,7 +1357,7 @@
         <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1386,7 +1386,7 @@
         <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1415,7 +1415,7 @@
         <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1444,7 +1444,7 @@
         <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1473,7 +1473,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1502,7 +1502,7 @@
         <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1531,7 +1531,7 @@
         <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1560,7 +1560,7 @@
         <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1589,7 +1589,7 @@
         <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1615,10 +1615,10 @@
         <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1644,10 +1644,10 @@
         <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1655,28 +1655,28 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24">
         <v>2023</v>
       </c>
       <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
         <v>125</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>126</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>127</v>
       </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
       <c r="H24" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1684,28 +1684,28 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25">
+        <v>2023</v>
+      </c>
+      <c r="D25" t="s">
         <v>120</v>
       </c>
-      <c r="C25">
-        <v>2023</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" t="s">
         <v>121</v>
       </c>
-      <c r="E25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" t="s">
-        <v>122</v>
-      </c>
       <c r="H25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1713,28 +1713,28 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26">
+        <v>2023</v>
+      </c>
+      <c r="D26" t="s">
         <v>129</v>
       </c>
-      <c r="C26">
-        <v>2023</v>
-      </c>
-      <c r="D26" t="s">
-        <v>130</v>
-      </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1742,28 +1742,28 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27">
         <v>2023</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1771,28 +1771,28 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28">
+        <v>2023</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s">
         <v>165</v>
       </c>
-      <c r="C28">
-        <v>2023</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" t="s">
-        <v>166</v>
-      </c>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1800,28 +1800,28 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29">
         <v>2023</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G29" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" t="s">
         <v>175</v>
       </c>
-      <c r="H29" t="s">
-        <v>176</v>
-      </c>
       <c r="I29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1829,28 +1829,28 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C30">
         <v>2024</v>
       </c>
       <c r="D30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" t="s">
         <v>180</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>181</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30" t="s">
         <v>182</v>
-      </c>
-      <c r="G30" t="s">
-        <v>183</v>
-      </c>
-      <c r="H30" t="s">
-        <v>189</v>
-      </c>
-      <c r="I30" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1858,28 +1858,28 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C31">
         <v>2024</v>
       </c>
       <c r="D31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
         <v>185</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" t="s">
         <v>187</v>
       </c>
-      <c r="F31" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" t="s">
-        <v>183</v>
-      </c>
-      <c r="H31" t="s">
-        <v>189</v>
-      </c>
       <c r="I31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE1E8EE-4C11-4C2E-BE36-CBBEE490528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEFA812-FA8C-4574-8C06-A34C291D3EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -615,7 +615,7 @@
     <t>Almost 100 years ago, Balto, along with a pack of elite sled dogs helped save the community of Nome, Alaska, from a diphtheria outbreak. Balto is representative of the sled dogs of the era who were reputed for their hardiness, endurance, and tolerance of harsh conditions at a time when northern communities relied on them for transportation, protection, and companionship. Unlike modern breeds, Balto and his contemporaries were products of generations of mating of diverse, outbred dogs selected for their performance and hardiness.  Today, Balto is immortalized with a statue in Central Park and is physically preserved and on display at the Cleaveland Museum of Natural History. We asked ourselves, could we use advances in genomic technologies and ancient DNA recovery techniques to parse through Balto’s DNA and understand selection emphasis and diversity occurring in sled dogs in the 1930’s? Could we decipher Balto’s physical appearance from his DNA and identify healthy developmental gene variants that may have endowed sled dogs in that era with abilities to withstand and thrive in harsh environments? Could we use our findings to guide modern breeders to breed healthier dogs? &lt;br&gt;&lt;br&gt;Also, here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
   <si>
-    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 250' class='center'&gt; &lt;/div&gt;</t>
+    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 100' class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEFA812-FA8C-4574-8C06-A34C291D3EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4722071-79FB-4092-ACBA-95F45BD27D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -615,7 +615,7 @@
     <t>Almost 100 years ago, Balto, along with a pack of elite sled dogs helped save the community of Nome, Alaska, from a diphtheria outbreak. Balto is representative of the sled dogs of the era who were reputed for their hardiness, endurance, and tolerance of harsh conditions at a time when northern communities relied on them for transportation, protection, and companionship. Unlike modern breeds, Balto and his contemporaries were products of generations of mating of diverse, outbred dogs selected for their performance and hardiness.  Today, Balto is immortalized with a statue in Central Park and is physically preserved and on display at the Cleaveland Museum of Natural History. We asked ourselves, could we use advances in genomic technologies and ancient DNA recovery techniques to parse through Balto’s DNA and understand selection emphasis and diversity occurring in sled dogs in the 1930’s? Could we decipher Balto’s physical appearance from his DNA and identify healthy developmental gene variants that may have endowed sled dogs in that era with abilities to withstand and thrive in harsh environments? Could we use our findings to guide modern breeders to breed healthier dogs? &lt;br&gt;&lt;br&gt;Also, here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
   <si>
-    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 100' class='center'&gt; &lt;/div&gt;</t>
+    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 160' class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4722071-79FB-4092-ACBA-95F45BD27D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AAFCF-260C-4F71-ADEA-4DCB96710316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -615,7 +615,7 @@
     <t>Almost 100 years ago, Balto, along with a pack of elite sled dogs helped save the community of Nome, Alaska, from a diphtheria outbreak. Balto is representative of the sled dogs of the era who were reputed for their hardiness, endurance, and tolerance of harsh conditions at a time when northern communities relied on them for transportation, protection, and companionship. Unlike modern breeds, Balto and his contemporaries were products of generations of mating of diverse, outbred dogs selected for their performance and hardiness.  Today, Balto is immortalized with a statue in Central Park and is physically preserved and on display at the Cleaveland Museum of Natural History. We asked ourselves, could we use advances in genomic technologies and ancient DNA recovery techniques to parse through Balto’s DNA and understand selection emphasis and diversity occurring in sled dogs in the 1930’s? Could we decipher Balto’s physical appearance from his DNA and identify healthy developmental gene variants that may have endowed sled dogs in that era with abilities to withstand and thrive in harsh environments? Could we use our findings to guide modern breeders to breed healthier dogs? &lt;br&gt;&lt;br&gt;Also, here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
   <si>
-    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 160' class='center'&gt; &lt;/div&gt;</t>
+    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 200' class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AAFCF-260C-4F71-ADEA-4DCB96710316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180EEF40-557D-48FF-9636-A124B34DDE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -615,7 +615,7 @@
     <t>Almost 100 years ago, Balto, along with a pack of elite sled dogs helped save the community of Nome, Alaska, from a diphtheria outbreak. Balto is representative of the sled dogs of the era who were reputed for their hardiness, endurance, and tolerance of harsh conditions at a time when northern communities relied on them for transportation, protection, and companionship. Unlike modern breeds, Balto and his contemporaries were products of generations of mating of diverse, outbred dogs selected for their performance and hardiness.  Today, Balto is immortalized with a statue in Central Park and is physically preserved and on display at the Cleaveland Museum of Natural History. We asked ourselves, could we use advances in genomic technologies and ancient DNA recovery techniques to parse through Balto’s DNA and understand selection emphasis and diversity occurring in sled dogs in the 1930’s? Could we decipher Balto’s physical appearance from his DNA and identify healthy developmental gene variants that may have endowed sled dogs in that era with abilities to withstand and thrive in harsh environments? Could we use our findings to guide modern breeders to breed healthier dogs? &lt;br&gt;&lt;br&gt;Also, here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
   <si>
-    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 200' class='center'&gt; &lt;/div&gt;</t>
+    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 250' class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180EEF40-557D-48FF-9636-A124B34DDE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C18D4C-F275-4946-A73C-9596F940E42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -615,7 +615,7 @@
     <t>Almost 100 years ago, Balto, along with a pack of elite sled dogs helped save the community of Nome, Alaska, from a diphtheria outbreak. Balto is representative of the sled dogs of the era who were reputed for their hardiness, endurance, and tolerance of harsh conditions at a time when northern communities relied on them for transportation, protection, and companionship. Unlike modern breeds, Balto and his contemporaries were products of generations of mating of diverse, outbred dogs selected for their performance and hardiness.  Today, Balto is immortalized with a statue in Central Park and is physically preserved and on display at the Cleaveland Museum of Natural History. We asked ourselves, could we use advances in genomic technologies and ancient DNA recovery techniques to parse through Balto’s DNA and understand selection emphasis and diversity occurring in sled dogs in the 1930’s? Could we decipher Balto’s physical appearance from his DNA and identify healthy developmental gene variants that may have endowed sled dogs in that era with abilities to withstand and thrive in harsh environments? Could we use our findings to guide modern breeders to breed healthier dogs? &lt;br&gt;&lt;br&gt;Also, here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
   <si>
-    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 250' class='center'&gt; &lt;/div&gt;</t>
+    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 350' class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C18D4C-F275-4946-A73C-9596F940E42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AED9EB-23BA-4E7D-AEB2-7890E49D2EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -615,7 +615,7 @@
     <t>Almost 100 years ago, Balto, along with a pack of elite sled dogs helped save the community of Nome, Alaska, from a diphtheria outbreak. Balto is representative of the sled dogs of the era who were reputed for their hardiness, endurance, and tolerance of harsh conditions at a time when northern communities relied on them for transportation, protection, and companionship. Unlike modern breeds, Balto and his contemporaries were products of generations of mating of diverse, outbred dogs selected for their performance and hardiness.  Today, Balto is immortalized with a statue in Central Park and is physically preserved and on display at the Cleaveland Museum of Natural History. We asked ourselves, could we use advances in genomic technologies and ancient DNA recovery techniques to parse through Balto’s DNA and understand selection emphasis and diversity occurring in sled dogs in the 1930’s? Could we decipher Balto’s physical appearance from his DNA and identify healthy developmental gene variants that may have endowed sled dogs in that era with abilities to withstand and thrive in harsh environments? Could we use our findings to guide modern breeders to breed healthier dogs? &lt;br&gt;&lt;br&gt;Also, here's a photo of Dr. Huson racing as a musher in Alaska!&lt;div class="box"&gt; &lt;img src="images/huson_sled.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
   <si>
-    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 350' class='center'&gt; &lt;/div&gt;</t>
+    <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 300' class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AED9EB-23BA-4E7D-AEB2-7890E49D2EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129D4B13-DECB-474D-849A-0C259BC5A083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -564,12 +564,6 @@
     <t>Justifying Slavery: The Intellectual Background of the Reconstruction Amendments</t>
   </si>
   <si>
-    <t xml:space="preserve"> Recent appraisals of the Thirteenth Amendment to the United States Constitution often note with alarm that slavery remains a legal form of punishment and lament for how this loophole has been weaponized against black Americans. I’m interested in how this alarm reflects an Aristotelian attitude towards slavery (more on what that means in the talk!), and about how an intellectual history of various justifications for slavery can help us understand what’s going on in the Thirteenth Amendment.</t>
-  </si>
-  <si>
-    <t>Do you find yourself freaking out over the state of the global environment, climate change, and loss of biodiversity? If so, you’re not alone — eco-anxiety has become one of the leading mental health issues in the third decade of the 21st century. Public gardens, which include botanic gardens, arboreta, conservatories, and historic landscapes, are addressing these seemingly overwhelming environmental challenges through their extensive collections, protection of natural areas, preservation of endangered species, and through programming and messaging. Will public gardens single-handedly solve all of these problems? No, but they can be a significant contributor to the solutions. In this talk you’ll learn some of the ways they are making a difference.</t>
-  </si>
-  <si>
     <t>February 7th</t>
   </si>
   <si>
@@ -616,6 +610,12 @@
   </si>
   <si>
     <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 300' class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Do you find yourself freaking out over the state of the global environment, climate change, and loss of biodiversity? If so, you’re not alone — eco-anxiety has become one of the leading mental health issues in the third decade of the 21st century. Public gardens, which include botanic gardens, arboreta, conservatories, and historic landscapes, are addressing these seemingly overwhelming environmental challenges through their extensive collections, protection of natural areas, preservation of endangered species, and through programming and messaging. Will public gardens single-handedly solve all of these problems? No, but they can be a significant contributor to the solutions. In this talk you’ll learn some of the ways they are making a difference. &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="Dec_6_2023_Donald_Rakow_1.jpg" class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recent appraisals of the Thirteenth Amendment to the United States Constitution often note with alarm that slavery remains a legal form of punishment and lament for how this loophole has been weaponized against black Americans. I’m interested in how this alarm reflects an Aristotelian attitude towards slavery (more on what that means in the talk!), and about how an intellectual history of various justifications for slavery can help us understand what’s going on in the Thirteenth Amendment. &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="Dec_6_2023_Toni_Alimi_1.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1615,7 +1615,7 @@
         <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I22" t="s">
         <v>154</v>
@@ -1673,7 +1673,7 @@
         <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I24" t="s">
         <v>156</v>
@@ -1702,7 +1702,7 @@
         <v>121</v>
       </c>
       <c r="H25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I25" t="s">
         <v>157</v>
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I26" t="s">
         <v>158</v>
@@ -1760,7 +1760,7 @@
         <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I27" t="s">
         <v>159</v>
@@ -1789,7 +1789,7 @@
         <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="I28" t="s">
         <v>169</v>
@@ -1818,7 +1818,7 @@
         <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="I29" t="s">
         <v>170</v>
@@ -1829,28 +1829,28 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C30">
         <v>2024</v>
       </c>
       <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" t="s">
         <v>178</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>179</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" t="s">
         <v>180</v>
-      </c>
-      <c r="G30" t="s">
-        <v>181</v>
-      </c>
-      <c r="H30" t="s">
-        <v>187</v>
-      </c>
-      <c r="I30" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1858,28 +1858,28 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C31">
         <v>2024</v>
       </c>
       <c r="D31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" t="s">
         <v>183</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" t="s">
         <v>185</v>
       </c>
-      <c r="F31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" t="s">
-        <v>181</v>
-      </c>
-      <c r="H31" t="s">
-        <v>187</v>
-      </c>
       <c r="I31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129D4B13-DECB-474D-849A-0C259BC5A083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929388DF-A547-4CF9-B158-55B2CFF1F37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -974,7 +974,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929388DF-A547-4CF9-B158-55B2CFF1F37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBAC97A-FE22-4D5A-82A2-434D659A7E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -612,10 +612,10 @@
     <t>The newspaper industry in the U.S. has been undergoing a significant decline since the early 2000s. The rise of the internet ushered in an era of information abundance and accessibility. However, this transition has severely impacted the traditional business models that once supported local newspapers, resulting in noticeable gaps in community coverage across the country. All of this is set against a climate where trust in media is approaching historic lows in the U.S.&lt;br&gt;&lt;br&gt;This presentation will illustrate these challenges, both on a local scale and within a broader context. Additionally, we will delve into the new models that are being explored in an effort to revitalize local reporting.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Oct_4_2023_Jimmy_Jordan_1.jpg" style = 'width: 300' class='center'&gt; &lt;/div&gt;</t>
   </si>
   <si>
-    <t>Do you find yourself freaking out over the state of the global environment, climate change, and loss of biodiversity? If so, you’re not alone — eco-anxiety has become one of the leading mental health issues in the third decade of the 21st century. Public gardens, which include botanic gardens, arboreta, conservatories, and historic landscapes, are addressing these seemingly overwhelming environmental challenges through their extensive collections, protection of natural areas, preservation of endangered species, and through programming and messaging. Will public gardens single-handedly solve all of these problems? No, but they can be a significant contributor to the solutions. In this talk you’ll learn some of the ways they are making a difference. &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="Dec_6_2023_Donald_Rakow_1.jpg" class='center'&gt; &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recent appraisals of the Thirteenth Amendment to the United States Constitution often note with alarm that slavery remains a legal form of punishment and lament for how this loophole has been weaponized against black Americans. I’m interested in how this alarm reflects an Aristotelian attitude towards slavery (more on what that means in the talk!), and about how an intellectual history of various justifications for slavery can help us understand what’s going on in the Thirteenth Amendment. &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="Dec_6_2023_Toni_Alimi_1.jpg" class='center'&gt; &lt;/div&gt;</t>
+    <t>Do you find yourself freaking out over the state of the global environment, climate change, and loss of biodiversity? If so, you’re not alone — eco-anxiety has become one of the leading mental health issues in the third decade of the 21st century. Public gardens, which include botanic gardens, arboreta, conservatories, and historic landscapes, are addressing these seemingly overwhelming environmental challenges through their extensive collections, protection of natural areas, preservation of endangered species, and through programming and messaging. Will public gardens single-handedly solve all of these problems? No, but they can be a significant contributor to the solutions. In this talk you’ll learn some of the ways they are making a difference. &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Dec_6_2023_Donald_Rakow_1.jpg" class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recent appraisals of the Thirteenth Amendment to the United States Constitution often note with alarm that slavery remains a legal form of punishment and lament for how this loophole has been weaponized against black Americans. I’m interested in how this alarm reflects an Aristotelian attitude towards slavery (more on what that means in the talk!), and about how an intellectual history of various justifications for slavery can help us understand what’s going on in the Thirteenth Amendment. &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Dec_6_2023_Toni_Alimi_1.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBAC97A-FE22-4D5A-82A2-434D659A7E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3DF0D-1ADE-4CF4-A939-08DD58F837D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="9810" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,9 +573,6 @@
     <t>Outreach and Information Services Librarian for the Cornell Prison Education Program</t>
   </si>
   <si>
-    <t>radical librarianship</t>
-  </si>
-  <si>
     <t>Title coming soon!</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
     <t>Geoffrey S.M. Hedrick Senior Endowed Professor of Mechanical and Aerospace Engineering</t>
   </si>
   <si>
-    <t>robotics</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -616,6 +610,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Recent appraisals of the Thirteenth Amendment to the United States Constitution often note with alarm that slavery remains a legal form of punishment and lament for how this loophole has been weaponized against black Americans. I’m interested in how this alarm reflects an Aristotelian attitude towards slavery (more on what that means in the talk!), and about how an intellectual history of various justifications for slavery can help us understand what’s going on in the Thirteenth Amendment. &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Dec_6_2023_Toni_Alimi_1.jpg" class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>a radical librarianship</t>
+  </si>
+  <si>
+    <t>a robotics</t>
   </si>
 </sst>
 </file>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1615,7 +1615,7 @@
         <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I22" t="s">
         <v>154</v>
@@ -1673,7 +1673,7 @@
         <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I24" t="s">
         <v>156</v>
@@ -1702,7 +1702,7 @@
         <v>121</v>
       </c>
       <c r="H25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I25" t="s">
         <v>157</v>
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I26" t="s">
         <v>158</v>
@@ -1760,7 +1760,7 @@
         <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I27" t="s">
         <v>159</v>
@@ -1789,7 +1789,7 @@
         <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I28" t="s">
         <v>169</v>
@@ -1818,7 +1818,7 @@
         <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I29" t="s">
         <v>170</v>
@@ -1841,16 +1841,16 @@
         <v>177</v>
       </c>
       <c r="F30" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" t="s">
         <v>178</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" t="s">
         <v>179</v>
-      </c>
-      <c r="H30" t="s">
-        <v>185</v>
-      </c>
-      <c r="I30" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1864,22 +1864,22 @@
         <v>2024</v>
       </c>
       <c r="D31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" t="s">
+        <v>183</v>
+      </c>
+      <c r="I31" t="s">
         <v>181</v>
-      </c>
-      <c r="E31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" t="s">
-        <v>185</v>
-      </c>
-      <c r="I31" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3DF0D-1ADE-4CF4-A939-08DD58F837D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32079C5-3C6A-44A1-A829-044C9AD3891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="9810" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="195">
   <si>
     <t>speaker</t>
   </si>
@@ -573,9 +572,6 @@
     <t>Outreach and Information Services Librarian for the Cornell Prison Education Program</t>
   </si>
   <si>
-    <t>Title coming soon!</t>
-  </si>
-  <si>
     <t>mreynolds</t>
   </si>
   <si>
@@ -588,9 +584,6 @@
     <t>Geoffrey S.M. Hedrick Senior Endowed Professor of Mechanical and Aerospace Engineering</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ever wonder how others perceive you based on your actions? We all do. Shockingly, recent studies in psychology reveal we're often quite mistaken about these perceptions. For example, people think they're less liked by others than they actually are, or they assume others aren't interested in their unsolicited advice when in fact they are. Such findings could help us get along better with others. But how accurate are these studies? And is it possible that participants in these studies are just trying to appear 'nice' when answering research questions? In this talk, I'll share my own research on this topic and discuss if we should take these findings at face value. Join me to discuss the fascinating, messy world of how we're seen by others.&lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Nov_1_2023_Andres_Montealegre_1.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
   <si>
@@ -616,6 +609,18 @@
   </si>
   <si>
     <t>a robotics</t>
+  </si>
+  <si>
+    <t>Will Robots Kill Us?</t>
+  </si>
+  <si>
+    <t>You know the sci fi trope — humanity depends on robots that decide to kill us all until a hero shows up to stop their evil plan. How close is that to reality? Will robots take over the world? Are they dangerous? Will they be? In this talk I'll describe what robots can and cannot do these days and discuss what the future might look like.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New York State prisons are low-information environments, where there is no internet access and books and media are subject to strict censorship. How can librarians on the outside respond to incarcerated patrons' need for books and information? The Cornell Prison Education Program (CPEP) is grappling with these questions as they seek to create research opportunities and expand information access in prison in anticipation of their launch of a Cornell BA inside. In this talk, we'll discuss what it's like to build a library program for incarcerated students, introducing Cornell's world class research materials behind the walls. We'll learn about CPEP and its history, nationwide efforts to bring library resources to incarcerated patrons, and what we're doing at Cornell to provide incarcerated students with more academic resources. We'll also talk about how to get involved in CPEP! </t>
+  </si>
+  <si>
+    <t>Bringing the Library to Prison with the Cornell Prison Education Program</t>
   </si>
 </sst>
 </file>
@@ -973,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1615,7 +1620,7 @@
         <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I22" t="s">
         <v>154</v>
@@ -1673,7 +1678,7 @@
         <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I24" t="s">
         <v>156</v>
@@ -1702,7 +1707,7 @@
         <v>121</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I25" t="s">
         <v>157</v>
@@ -1731,7 +1736,7 @@
         <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I26" t="s">
         <v>158</v>
@@ -1760,7 +1765,7 @@
         <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I27" t="s">
         <v>159</v>
@@ -1789,7 +1794,7 @@
         <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I28" t="s">
         <v>169</v>
@@ -1818,7 +1823,7 @@
         <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I29" t="s">
         <v>170</v>
@@ -1841,19 +1846,19 @@
         <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" t="s">
         <v>178</v>
       </c>
-      <c r="H30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>15</v>
       </c>
@@ -1864,22 +1869,22 @@
         <v>2024</v>
       </c>
       <c r="D31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" t="s">
         <v>180</v>
-      </c>
-      <c r="E31" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" t="s">
-        <v>183</v>
-      </c>
-      <c r="I31" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32079C5-3C6A-44A1-A829-044C9AD3891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDDF6A9-57C4-4909-88B6-E1D9CD8C4E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="9810" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="207">
   <si>
     <t>speaker</t>
   </si>
@@ -621,6 +621,42 @@
   </si>
   <si>
     <t>Bringing the Library to Prison with the Cornell Prison Education Program</t>
+  </si>
+  <si>
+    <t>March 6th</t>
+  </si>
+  <si>
+    <t>Dr. Joel Brown</t>
+  </si>
+  <si>
+    <t>Postdoctoral Associate in the Department of Entomology at Cornell University</t>
+  </si>
+  <si>
+    <t>an entomology</t>
+  </si>
+  <si>
+    <t>Getting A Buzz On: Mojitos and Mosquitoes</t>
+  </si>
+  <si>
+    <t>Do you think you get bitten more than your friends? Do you wish we could make all mosquitoes go away? Want to know why your symptoms might get you thrown in a bush? In this talk I'll cover the weird biology and wacky tropes about everyone's favourite insect: mosquitoes. Come and find out how to keep yourself healthy and less itchy this summer.</t>
+  </si>
+  <si>
+    <t>jbrown</t>
+  </si>
+  <si>
+    <t>Elias Beltrán</t>
+  </si>
+  <si>
+    <t>PhD Candidate in Comparative Literature at Cornell University</t>
+  </si>
+  <si>
+    <t>Title Coming Soon!</t>
+  </si>
+  <si>
+    <t>ebeltran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -976,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1858,7 +1894,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>15</v>
       </c>
@@ -1885,6 +1921,64 @@
       </c>
       <c r="I31" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32">
+        <v>2024</v>
+      </c>
+      <c r="D32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33">
+        <v>2024</v>
+      </c>
+      <c r="D33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" t="s">
+        <v>206</v>
+      </c>
+      <c r="I33" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDDF6A9-57C4-4909-88B6-E1D9CD8C4E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A156A632-1B84-403F-BCA4-9828DEB64319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="9810" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,13 +650,16 @@
     <t>PhD Candidate in Comparative Literature at Cornell University</t>
   </si>
   <si>
-    <t>Title Coming Soon!</t>
-  </si>
-  <si>
     <t>ebeltran</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Latinidad Sinofonica: Asian Diasporic Visibilities in Salsa and Reggaetón</t>
+  </si>
+  <si>
+    <t>Salsa music and reggaetón, though most clearly articulated in the Hispanophone Caribbean, are related by diasporic connections coming from “histories of migrations and
+cultural exchange throughout all of the Americas.” And, though some scholars suggest that reggaetón should be read through its social and political “positioning to cultural expressions exclusively centered on blackness,” I respectfully disagree. While holding—and celebrating(!)—the African Diaspora as a creative nexus in both genres, exclusively positioning the cultural expressions of either salsa or reggaetón on blackness keeps us from connecting “asymmetrical histories and processes” that have, all too often, been examined separately, rather than approached as responses to shared conditions with deep implications. Looking at the musical presences and relations between African and Asian Diasporic subjects in salsa and reggateón refuses not only the idea of separate histories, but also exposes how racialized
+mimicry fuels antagonisms, and reinforces colonial subjects as negatively known and dispositively knowable. In this way, looking at the presence and contributions of the Chinese
+Diaspora in the musics of the Hispanophone Caribbean, previously a site of occlusion, emerges not as a pitting against but as a potential source of coalition-building precisely because of the intimacy of shared histories.</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1952,7 +1955,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>16</v>
       </c>
@@ -1972,13 +1975,13 @@
         <v>61</v>
       </c>
       <c r="G33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I33" t="s">
         <v>204</v>
-      </c>
-      <c r="H33" t="s">
-        <v>206</v>
-      </c>
-      <c r="I33" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A156A632-1B84-403F-BCA4-9828DEB64319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8970F-AB10-4D3B-8AAB-787F8ECB7371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -656,10 +656,8 @@
     <t>Latinidad Sinofonica: Asian Diasporic Visibilities in Salsa and Reggaetón</t>
   </si>
   <si>
-    <t>Salsa music and reggaetón, though most clearly articulated in the Hispanophone Caribbean, are related by diasporic connections coming from “histories of migrations and
-cultural exchange throughout all of the Americas.” And, though some scholars suggest that reggaetón should be read through its social and political “positioning to cultural expressions exclusively centered on blackness,” I respectfully disagree. While holding—and celebrating(!)—the African Diaspora as a creative nexus in both genres, exclusively positioning the cultural expressions of either salsa or reggaetón on blackness keeps us from connecting “asymmetrical histories and processes” that have, all too often, been examined separately, rather than approached as responses to shared conditions with deep implications. Looking at the musical presences and relations between African and Asian Diasporic subjects in salsa and reggateón refuses not only the idea of separate histories, but also exposes how racialized
-mimicry fuels antagonisms, and reinforces colonial subjects as negatively known and dispositively knowable. In this way, looking at the presence and contributions of the Chinese
-Diaspora in the musics of the Hispanophone Caribbean, previously a site of occlusion, emerges not as a pitting against but as a potential source of coalition-building precisely because of the intimacy of shared histories.</t>
+    <t>Salsa music and reggaetón, though most clearly articulated in the Hispanophone Caribbean, are related by diasporic connections coming from “histories of migrations and cultural exchange throughout all of the Americas.” And, though some scholars suggest that reggaetón should be read through its social and political “positioning to cultural expressions exclusively centered on blackness,” I respectfully disagree. While holding—and celebrating(!)—the African Diaspora as a creative nexus in both genres, exclusively positioning the cultural expressions of either salsa or reggaetón on blackness keeps us from connecting “asymmetrical histories and processes” that have, all too often, been examined separately, rather than approached as responses to shared conditions with deep implications. Looking at the musical presences and relations between African and Asian Diasporic subjects in salsa and reggateón refuses not only the idea of separate histories, but also exposes how racialized
+mimicry fuels antagonisms, and reinforces colonial subjects as negatively known and dispositively knowable. In this way, looking at the presence and contributions of the Chinese Diaspora in the musics of the Hispanophone Caribbean, previously a site of occlusion, emerges not as a pitting against but as a potential source of coalition-building precisely because of the intimacy of shared histories.</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1016,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8970F-AB10-4D3B-8AAB-787F8ECB7371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A0403B-55C2-458B-B46E-E68E727A14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A0403B-55C2-458B-B46E-E68E727A14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BBBCE7-D841-4587-9ABD-3208FDF40EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,12 +614,6 @@
     <t>Will Robots Kill Us?</t>
   </si>
   <si>
-    <t>You know the sci fi trope — humanity depends on robots that decide to kill us all until a hero shows up to stop their evil plan. How close is that to reality? Will robots take over the world? Are they dangerous? Will they be? In this talk I'll describe what robots can and cannot do these days and discuss what the future might look like.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New York State prisons are low-information environments, where there is no internet access and books and media are subject to strict censorship. How can librarians on the outside respond to incarcerated patrons' need for books and information? The Cornell Prison Education Program (CPEP) is grappling with these questions as they seek to create research opportunities and expand information access in prison in anticipation of their launch of a Cornell BA inside. In this talk, we'll discuss what it's like to build a library program for incarcerated students, introducing Cornell's world class research materials behind the walls. We'll learn about CPEP and its history, nationwide efforts to bring library resources to incarcerated patrons, and what we're doing at Cornell to provide incarcerated students with more academic resources. We'll also talk about how to get involved in CPEP! </t>
-  </si>
-  <si>
     <t>Bringing the Library to Prison with the Cornell Prison Education Program</t>
   </si>
   <si>
@@ -658,6 +652,12 @@
   <si>
     <t>Salsa music and reggaetón, though most clearly articulated in the Hispanophone Caribbean, are related by diasporic connections coming from “histories of migrations and cultural exchange throughout all of the Americas.” And, though some scholars suggest that reggaetón should be read through its social and political “positioning to cultural expressions exclusively centered on blackness,” I respectfully disagree. While holding—and celebrating(!)—the African Diaspora as a creative nexus in both genres, exclusively positioning the cultural expressions of either salsa or reggaetón on blackness keeps us from connecting “asymmetrical histories and processes” that have, all too often, been examined separately, rather than approached as responses to shared conditions with deep implications. Looking at the musical presences and relations between African and Asian Diasporic subjects in salsa and reggateón refuses not only the idea of separate histories, but also exposes how racialized
 mimicry fuels antagonisms, and reinforces colonial subjects as negatively known and dispositively knowable. In this way, looking at the presence and contributions of the Chinese Diaspora in the musics of the Hispanophone Caribbean, previously a site of occlusion, emerges not as a pitting against but as a potential source of coalition-building precisely because of the intimacy of shared histories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New York State prisons are low-information environments, where there is no internet access and books and media are subject to strict censorship. How can librarians on the outside respond to incarcerated patrons' need for books and information? The Cornell Prison Education Program (CPEP) is grappling with these questions as they seek to create research opportunities and expand information access in prison in anticipation of their launch of a Cornell BA inside. In this talk, we'll discuss what it's like to build a library program for incarcerated students, introducing Cornell's world class research materials behind the walls. We'll learn about CPEP and its history, nationwide efforts to bring library resources to incarcerated patrons, and what we're doing at Cornell to provide incarcerated students with more academic resources. We'll also talk about how to get involved in CPEP! &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Feb 7_ 2024_Maddie_Reynolds_1" class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>You know the sci fi trope — humanity depends on robots that decide to kill us all until a hero shows up to stop their evil plan. How close is that to reality? Will robots take over the world? Are they dangerous? Will they be? In this talk I'll describe what robots can and cannot do these days and discuss what the future might look like.&lt;img src="images/Feb 7_ 2024_Hadas_Kress-Gazit_1" class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -717,9 +717,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -757,7 +757,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -863,7 +863,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1005,7 +1005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1886,10 +1886,10 @@
         <v>189</v>
       </c>
       <c r="G30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H30" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="I30" t="s">
         <v>178</v>
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="I31" t="s">
         <v>180</v>
@@ -1929,57 +1929,57 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C32">
         <v>2024</v>
       </c>
       <c r="D32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" t="s">
         <v>196</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>197</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>198</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>199</v>
       </c>
-      <c r="H32" t="s">
-        <v>200</v>
-      </c>
-      <c r="I32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C33">
         <v>2024</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F33" t="s">
         <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BBBCE7-D841-4587-9ABD-3208FDF40EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D92102-2D4D-453D-BC8F-F39DD23ADE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -654,10 +654,10 @@
 mimicry fuels antagonisms, and reinforces colonial subjects as negatively known and dispositively knowable. In this way, looking at the presence and contributions of the Chinese Diaspora in the musics of the Hispanophone Caribbean, previously a site of occlusion, emerges not as a pitting against but as a potential source of coalition-building precisely because of the intimacy of shared histories.</t>
   </si>
   <si>
-    <t xml:space="preserve"> New York State prisons are low-information environments, where there is no internet access and books and media are subject to strict censorship. How can librarians on the outside respond to incarcerated patrons' need for books and information? The Cornell Prison Education Program (CPEP) is grappling with these questions as they seek to create research opportunities and expand information access in prison in anticipation of their launch of a Cornell BA inside. In this talk, we'll discuss what it's like to build a library program for incarcerated students, introducing Cornell's world class research materials behind the walls. We'll learn about CPEP and its history, nationwide efforts to bring library resources to incarcerated patrons, and what we're doing at Cornell to provide incarcerated students with more academic resources. We'll also talk about how to get involved in CPEP! &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Feb 7_ 2024_Maddie_Reynolds_1" class='center'&gt; &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>You know the sci fi trope — humanity depends on robots that decide to kill us all until a hero shows up to stop their evil plan. How close is that to reality? Will robots take over the world? Are they dangerous? Will they be? In this talk I'll describe what robots can and cannot do these days and discuss what the future might look like.&lt;img src="images/Feb 7_ 2024_Hadas_Kress-Gazit_1" class='center'&gt; &lt;/div&gt;</t>
+    <t>You know the sci fi trope — humanity depends on robots that decide to kill us all until a hero shows up to stop their evil plan. How close is that to reality? Will robots take over the world? Are they dangerous? Will they be? In this talk I'll describe what robots can and cannot do these days and discuss what the future might look like.&lt;img src="images/Feb 7_ 2024_Hadas_Kress-Gazit_1.jpg" class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New York State prisons are low-information environments, where there is no internet access and books and media are subject to strict censorship. How can librarians on the outside respond to incarcerated patrons' need for books and information? The Cornell Prison Education Program (CPEP) is grappling with these questions as they seek to create research opportunities and expand information access in prison in anticipation of their launch of a Cornell BA inside. In this talk, we'll discuss what it's like to build a library program for incarcerated students, introducing Cornell's world class research materials behind the walls. We'll learn about CPEP and its history, nationwide efforts to bring library resources to incarcerated patrons, and what we're doing at Cornell to provide incarcerated students with more academic resources. We'll also talk about how to get involved in CPEP! &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Feb 7_ 2024_Maddie_Reynolds_1.jpg" class='center'&gt; &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1889,7 +1889,7 @@
         <v>192</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I30" t="s">
         <v>178</v>
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I31" t="s">
         <v>180</v>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D92102-2D4D-453D-BC8F-F39DD23ADE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C2EDE9-7E47-4B70-B720-D3E842B50F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="216">
   <si>
     <t>speaker</t>
   </si>
@@ -658,19 +658,67 @@
   </si>
   <si>
     <t xml:space="preserve"> New York State prisons are low-information environments, where there is no internet access and books and media are subject to strict censorship. How can librarians on the outside respond to incarcerated patrons' need for books and information? The Cornell Prison Education Program (CPEP) is grappling with these questions as they seek to create research opportunities and expand information access in prison in anticipation of their launch of a Cornell BA inside. In this talk, we'll discuss what it's like to build a library program for incarcerated students, introducing Cornell's world class research materials behind the walls. We'll learn about CPEP and its history, nationwide efforts to bring library resources to incarcerated patrons, and what we're doing at Cornell to provide incarcerated students with more academic resources. We'll also talk about how to get involved in CPEP! &lt;br&gt;&lt;br&gt;&lt;div class="box"&gt; &lt;img src="images/Feb 7_ 2024_Maddie_Reynolds_1.jpg" class='center'&gt; &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>April 3rd</t>
+  </si>
+  <si>
+    <t>an astrophysics</t>
+  </si>
+  <si>
+    <t>Title Coming Soon!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>lkeller</t>
+  </si>
+  <si>
+    <t>Dr. Carlos Figueroa</t>
+  </si>
+  <si>
+    <t>a political history</t>
+  </si>
+  <si>
+    <t>cfigueroa</t>
+  </si>
+  <si>
+    <t>Associate Professor of Politics at Ithaca College</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Candara"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -693,11 +741,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1982,6 +2039,73 @@
         <v>202</v>
       </c>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34">
+        <v>2024</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35">
+        <v>2024</v>
+      </c>
+      <c r="D35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D39" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C2EDE9-7E47-4B70-B720-D3E842B50F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA13C89B-B5D0-461A-8822-E728C13F9A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA13C89B-B5D0-461A-8822-E728C13F9A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CD4A8F-042D-47ED-A039-026FE12D733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="218">
   <si>
     <t>speaker</t>
   </si>
@@ -666,12 +665,6 @@
     <t>an astrophysics</t>
   </si>
   <si>
-    <t>Title Coming Soon!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>lkeller</t>
   </si>
   <si>
@@ -685,6 +678,20 @@
   </si>
   <si>
     <t>Associate Professor of Politics at Ithaca College</t>
+  </si>
+  <si>
+    <t>Do you know a forgotten Gay Quaker, Labor, and Civil Rights Leader?  Meet Bayard Taylor Rustin!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bayard T. Rustin was a political activist, writer, and organizer committed to social, political, and economic justice and equality across different cultures, countries, and ideological perspectives.  His beliefs and actions often led to controversial positions.  Although Rustin is most well-known for organizing the 1963 March on Washington for Jobs and Freedom, he accomplished much more than that.  Sorry, Netflix!  This talk delves into how and why Rustin’s pragmatic Quaker faith influenced his politics and helped him navigate the various controversies of his time throughout an extraordinary life from the 1940s through the 1980s. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you planning a trip to the path of totality on April 8, 2024? You may be an umbraphile! Not sure what an umbraphile or a path of totality is? Join us as we explore the social and physical science of eclipses. A total solar eclipse occurs when the moon passes directly between Earth and the Sun casting its shadow on Earth’s surface. Solar eclipses happen about twice a year, but the shadow rarely passes over populated areas and most often passes over the oceans. The eclipse of April 2024 will be a rare treat because the moon will photo bomb the sun for tens of millions of people including communities right here in Central New York. We'll cover the details of how, when, and why eclipses happen and how to safely observe them.
+</t>
+  </si>
+  <si>
+    <t>Are You an Umbraphile? Understanding and Observing the 2024 Total Solar Eclipse</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2039,7 +2046,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>17</v>
       </c>
@@ -2059,16 +2066,16 @@
         <v>208</v>
       </c>
       <c r="G34" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I34" t="s">
         <v>209</v>
       </c>
-      <c r="H34" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>17</v>
       </c>
@@ -2079,22 +2086,22 @@
         <v>2024</v>
       </c>
       <c r="D35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I35" t="s">
         <v>212</v>
-      </c>
-      <c r="E35" t="s">
-        <v>215</v>
-      </c>
-      <c r="F35" t="s">
-        <v>213</v>
-      </c>
-      <c r="G35" t="s">
-        <v>209</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I35" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CD4A8F-042D-47ED-A039-026FE12D733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6F141-8361-4DE2-B386-38CF99047C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="230">
   <si>
     <t>speaker</t>
   </si>
@@ -692,13 +692,49 @@
   </si>
   <si>
     <t>Are You an Umbraphile? Understanding and Observing the 2024 Total Solar Eclipse</t>
+  </si>
+  <si>
+    <t>May 1st</t>
+  </si>
+  <si>
+    <t>Dr. Antoine Chapelain</t>
+  </si>
+  <si>
+    <t>Dr. Kim Haines-Eitzen</t>
+  </si>
+  <si>
+    <t>Accelerator Physicist at CLASSE</t>
+  </si>
+  <si>
+    <t>Title Coming Soon!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>achapelain</t>
+  </si>
+  <si>
+    <t>Hendrix Memorial Professor in the Department of Near Eastern Studies and Religious Studies Program at Cornell University</t>
+  </si>
+  <si>
+    <t>a religious history</t>
+  </si>
+  <si>
+    <t>A Field Guide to the Apocalypse</t>
+  </si>
+  <si>
+    <t>The language of apocalypse is seemingly all around us. From the devastation of war to the aftermath of voracious wildfires, from doomsday preppers to ecological collapse we confront the persistent vitality of apocalyptic language and thought.  In this talk, I will take us back to the roots of apocalyptic thought in antiquity to reflect on the sense of revelation—an uncovering or an unveiling—in the apocalyptic imagination. But I also want to unpack something more elemental—namely, how earth, wind, water, and especially fire animated apocalypticism in the past and what they might teach us about our present moment.</t>
+  </si>
+  <si>
+    <t>khaines-eitzen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,18 +749,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Candara"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Candara"/>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -748,21 +775,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2104,14 +2126,69 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36">
+        <v>2024</v>
+      </c>
+      <c r="D36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>222</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37">
+        <v>2024</v>
+      </c>
+      <c r="D37" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D39" s="5"/>
+      <c r="D39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6F141-8361-4DE2-B386-38CF99047C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD51FF-214C-4177-9CE1-D5AC0C5FBB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -734,7 +734,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,12 +746,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Candara"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -775,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -784,7 +778,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2126,7 +2119,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>18</v>
       </c>
@@ -2137,25 +2130,25 @@
         <v>2024</v>
       </c>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E36" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="G36" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>18</v>
       </c>
@@ -2166,26 +2159,23 @@
         <v>2024</v>
       </c>
       <c r="D37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F37" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I37" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D38" s="4"/>
+        <v>224</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D39" s="3"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD51FF-214C-4177-9CE1-D5AC0C5FBB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4831FA8A-3A2E-439E-AACF-31C04685970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -706,12 +706,6 @@
     <t>Accelerator Physicist at CLASSE</t>
   </si>
   <si>
-    <t>Title Coming Soon!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>achapelain</t>
   </si>
   <si>
@@ -728,6 +722,13 @@
   </si>
   <si>
     <t>khaines-eitzen</t>
+  </si>
+  <si>
+    <t>Particles? Accelerators? Wait, Why Should I Care?': The Societal Benefits of Fundamental Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Particle and accelerator physics might sound like science fiction to you, but they affect us in the real world more than you might think (in a good way!). Let’s dive into these fields of research and see what they are, where they come from, and how they have changed our everyday lives. We’ll start with a brief overview and history before getting into some applications.
+</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G40" sqref="G37:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2133,22 +2134,22 @@
         <v>220</v>
       </c>
       <c r="E36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" t="s">
         <v>225</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>227</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I36" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>18</v>
       </c>
@@ -2167,14 +2168,14 @@
       <c r="F37" t="s">
         <v>55</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" t="s">
         <v>222</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I37" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4831FA8A-3A2E-439E-AACF-31C04685970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE17CD-B117-4C94-9E60-A3EF9AFCACA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -724,11 +724,11 @@
     <t>khaines-eitzen</t>
   </si>
   <si>
-    <t>Particles? Accelerators? Wait, Why Should I Care?': The Societal Benefits of Fundamental Science</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Particle and accelerator physics might sound like science fiction to you, but they affect us in the real world more than you might think (in a good way!). Let’s dive into these fields of research and see what they are, where they come from, and how they have changed our everyday lives. We’ll start with a brief overview and history before getting into some applications.
 </t>
+  </si>
+  <si>
+    <t>'Particles? Accelerators? Wait, Why Should I Care?': The Societal Benefits of Fundamental Science</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G40" sqref="G37:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2169,10 +2169,10 @@
         <v>55</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="I37" t="s">
         <v>222</v>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE17CD-B117-4C94-9E60-A3EF9AFCACA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC78BD2-7F3F-4541-8FD4-75E53BB4CD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="243">
   <si>
     <t>speaker</t>
   </si>
@@ -729,13 +729,64 @@
   </si>
   <si>
     <t>'Particles? Accelerators? Wait, Why Should I Care?': The Societal Benefits of Fundamental Science</t>
+  </si>
+  <si>
+    <t>June 5th</t>
+  </si>
+  <si>
+    <t>The construction industry is currently facing many challenges with respect to shortage of skilled workers,
+greenhouse gas emissions, and our need for massive quantities of construction materials. In this talk I will
+first focus on this global materials challenge and lay out pathways for achieving sustainability in the
+cement and concrete industry. These include examples such as the use of mineral waste materials, low-
+grade calcined clays, and carbonated steel slags. Next, I will focus on advances enabled through
+automation. Specifically, 3D printing with concrete or additive construction can be a path forward to
+efficiently use materials and reduce the amount of waste that is generated. Furthermore, robotic
+construction provides an opportunity to fabricate complex structures such as gyroids. A gyroid is a triply
+periodic minimal surface that efficiently distributes stress under compression loading in all orientations.
+Using a 2-component system with an in-house developed flowable mixture and with injection of
+accelerator at the nozzle, I will demonstrate our ability to print these complex geometries to create and
+test structural components such as walls.</t>
+  </si>
+  <si>
+    <t>Dr. Sriramya Nair</t>
+  </si>
+  <si>
+    <t>Assistant Professor of Civil and Environmental Engineering at Cornell University</t>
+  </si>
+  <si>
+    <t>an environmental engineering</t>
+  </si>
+  <si>
+    <t>snair</t>
+  </si>
+  <si>
+    <t>Stephanie M. López</t>
+  </si>
+  <si>
+    <t>PhD Candidate in Romance Studies and Mellon Graduate Fellow at Cornell University</t>
+  </si>
+  <si>
+    <t>an environmental humanities</t>
+  </si>
+  <si>
+    <t>Mangrove Mothers: Environmental Resilience at the Edges of the Colombian Nation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangroves form an essential barrier between oceans and land protecting shorelines from storm surges and rising tides while mothers are threshold subjects that create a buffer between the public and private spheres preserving them as separate. But what can mangroves and mothers teach us about environmental resilience at a time when countries are firmly reasserting the nuclear family as the center of care and economic consumption ? This talk delves into Dulce (2018) a short ten-minute documentary co-directed by Guille Isa and Angello Faccini that grapples with the delicate ecosystem of a Pacific mangrove forest and a community of clam harvesters on the Pacific coast department of Nariño in Colombia. These mangrove mothers show us how porous boundaries and a politics of place create havens for social and physical life to thrive.
+</t>
+  </si>
+  <si>
+    <t>slopez</t>
+  </si>
+  <si>
+    <t>Sustainability and Automation: The Future of Concrete Industry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,8 +797,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Candara"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -770,15 +828,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2178,8 +2238,63 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D39" s="3"/>
+    <row r="38" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38">
+        <v>2024</v>
+      </c>
+      <c r="D38" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" t="s">
+        <v>242</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39">
+        <v>2024</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F39" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" t="s">
+        <v>239</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I39" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC78BD2-7F3F-4541-8FD4-75E53BB4CD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267B8211-79F5-4B58-9CEE-ABAC2F2810B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="255">
   <si>
     <t>speaker</t>
   </si>
@@ -780,6 +780,52 @@
   </si>
   <si>
     <t>Sustainability and Automation: The Future of Concrete Industry</t>
+  </si>
+  <si>
+    <t>July 3rd</t>
+  </si>
+  <si>
+    <t>a performance studies</t>
+  </si>
+  <si>
+    <t>Nigerian Cinema/Nollywood: The Making of a Global Cinema</t>
+  </si>
+  <si>
+    <t>The origin story of Nollywood is intriguing, complex, and intertwined by multiple histories,
+people, and geographies – it unfolds like the most drama-packed film that you have yet to see.
+In terms of output, Nollywood is the second-largest film industry in the world. It is surpassed by
+Bollywood, with the United States-grown Hollywood taking the third slot. Nollywood has
+inspired the emergence of several African film industries, it orchestrates a space for post-
+colonial African migrants to engage with home-grown film productions, and lately, it has been
+expanding its reach via distribution on global streaming sites such as as Netflix. This talk asks:
+What is Nollywood, and how did it become a global film industry? How does the industry
+continue to position itself, both within and outside of Africa? Drawing on its origin story and its
+point of contact, I spotlight the exciting profile of this African film industry.</t>
+  </si>
+  <si>
+    <t>Rejoice Abutsa</t>
+  </si>
+  <si>
+    <t>rabutsa</t>
+  </si>
+  <si>
+    <t>PhD Candidate in the Department of Performing and
+Media Arts at Cornell University</t>
+  </si>
+  <si>
+    <t>Naman Agrawal</t>
+  </si>
+  <si>
+    <t>The Strange Connection Between India and the Star Spangled Banner</t>
+  </si>
+  <si>
+    <t>nagrawal</t>
+  </si>
+  <si>
+    <t>PhD Student in the Department of Neurobiology and Behavior at Cornell University</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -802,10 +848,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Garamond"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -835,10 +882,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2277,10 +2324,10 @@
       <c r="C39">
         <v>2024</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>237</v>
       </c>
       <c r="F39" t="s">
@@ -2294,6 +2341,64 @@
       </c>
       <c r="I39" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40">
+        <v>2024</v>
+      </c>
+      <c r="D40" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41">
+        <v>2024</v>
+      </c>
+      <c r="D41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" t="s">
+        <v>253</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I41" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267B8211-79F5-4B58-9CEE-ABAC2F2810B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7991846F-FB9A-4987-927F-0039079801AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2343,7 +2343,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>20</v>
       </c>
@@ -2354,25 +2354,25 @@
         <v>2024</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="E40" t="s">
+        <v>253</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="I40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>20</v>
       </c>
@@ -2383,22 +2383,22 @@
         <v>2024</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
-      </c>
-      <c r="E41" t="s">
-        <v>253</v>
+        <v>247</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="G41" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I41" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7991846F-FB9A-4987-927F-0039079801AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DDB7F7-6651-4786-85D0-83A477778028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -825,7 +825,7 @@
     <t>PhD Student in the Department of Neurobiology and Behavior at Cornell University</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Did you know that the US National Anthem refers to military technology stolen from India by the British?  In this talk we'll look at the history of rocketry and fireworks, and how these technologies held off the might of the British empire and lit up the skies of Fort McHenry where Francis Scott Key wrote the Star Spangled Banner in this special July 4th edition of Public Works!</t>
   </si>
 </sst>
 </file>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2343,7 +2343,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>20</v>
       </c>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DDB7F7-6651-4786-85D0-83A477778028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DB3310-D583-4579-9A37-D737627F4E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="268">
   <si>
     <t>speaker</t>
   </si>
@@ -826,6 +826,46 @@
   </si>
   <si>
     <t>Did you know that the US National Anthem refers to military technology stolen from India by the British?  In this talk we'll look at the history of rocketry and fireworks, and how these technologies held off the might of the British empire and lit up the skies of Fort McHenry where Francis Scott Key wrote the Star Spangled Banner in this special July 4th edition of Public Works!</t>
+  </si>
+  <si>
+    <t>August 7th</t>
+  </si>
+  <si>
+    <t>Lushima Lumumba-Kasongo</t>
+  </si>
+  <si>
+    <t>Program Director at the Southside Community Center</t>
+  </si>
+  <si>
+    <t>Spreading Black Joy Excellence in Community and Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this talk, we will learn about Southside Community Center, a non-profit organization with a strong focus on sharing Black joy and serving the community. Whether it's through childcare programs, community outreach programs, setting up workshops, connecting people to resources &amp; organizations - if the community needs it, we have it! Southside also hosts and fosters space for creatives to spread their joy and feel at home to be themselves. 
+</t>
+  </si>
+  <si>
+    <t>llumumba-kasongo</t>
+  </si>
+  <si>
+    <t>Caleb R Thomas</t>
+  </si>
+  <si>
+    <t>Founder of Ithaca Murals</t>
+  </si>
+  <si>
+    <t>In 2009 there were about 15 mural locations in Ithaca. Today (in 2024) there are about 400 and the numbers are continuing to snowball. Have you ever wondered the story behind these murals that you find on downtown buildings and tucked away in alleyways? Who are the artists and what is their mission? In this talk, we'll learn about Ithaca Murals, a network of people transforming gray walls into beautiful, meaningful works of art that tell the stories of the diverse people who live here. Caleb Thomas, the organization's founder, will share the process behind some of your favorite murals.</t>
+  </si>
+  <si>
+    <t>a community service</t>
+  </si>
+  <si>
+    <t>Activism Ithaca</t>
+  </si>
+  <si>
+    <t>a public arts</t>
+  </si>
+  <si>
+    <t>cthomas</t>
   </si>
 </sst>
 </file>
@@ -1200,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2401,6 +2441,64 @@
         <v>248</v>
       </c>
     </row>
+    <row r="42" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42">
+        <v>2024</v>
+      </c>
+      <c r="D42" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43">
+        <v>2024</v>
+      </c>
+      <c r="D43" t="s">
+        <v>261</v>
+      </c>
+      <c r="E43" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H43" t="s">
+        <v>263</v>
+      </c>
+      <c r="I43" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DB3310-D583-4579-9A37-D737627F4E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C74DF8-8523-482F-BEEE-060FFF7B9B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="281">
   <si>
     <t>speaker</t>
   </si>
@@ -866,6 +866,45 @@
   </si>
   <si>
     <t>cthomas</t>
+  </si>
+  <si>
+    <t>September 4th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model United Nations: Practicing for the Next Generation's Global Community </t>
+  </si>
+  <si>
+    <t>As Kofi Annan, a previous Secretary General of the United Nations (UN) and Nobel Peace Prize laureate, said, “More than ever before in human history, we share a common destiny. We can master it only if we face it together. And that, my friends, is why we have the United Nations.” All around the world, high school and college students are coming to understand the world’s most complex issues by becoming the delegates who debate them. Model United Nations (MUN) is a simulation of the UN, and it usually appeals to people interested in global politics, problem-solving with other like-minded delegates, public speaking, and debate. The TeenDay Ithaca MUN team will give an overview of the UN and what MUN is. We will explain how MUN allows students from all walks of life to explore new possible careers, and develop life skills such as public speaking, collaboration, and more. The end of the presentation will see a brief demo of what takes place in a MUN conference. Any and all points of inquiry will be addressed as long as decorum is maintained.</t>
+  </si>
+  <si>
+    <t>Amaya Michaelides, Judah Kircher, Benjamin Forman, and Juliet Asperschlager</t>
+  </si>
+  <si>
+    <t>Members of the TeenDay Ithaca Model United Nations Team</t>
+  </si>
+  <si>
+    <t>a political debate</t>
+  </si>
+  <si>
+    <t>Dr. Elizabeth Medina-Gray</t>
+  </si>
+  <si>
+    <t>Associate Professor of Music Theory at Ithaca College</t>
+  </si>
+  <si>
+    <t>What makes a sound a “sound effect,” and what makes a sound “music”? While there are many examples of sounds in media that fit easily into one of these categories or the other, some sounds may seem to cross or blur the boundaries between these categories in interesting ways. In this presentation, I highlight some sounds in video games that are both sound effects and musical/music. I consider a variety of sounds from select games, for example very early games like Pong (1972), and more recent games like Super Mario Galaxy (2007). How might such musical sound effects (or sound-effect music) impact a player’s/listener’s experience with a game? Video games provide a rich field in which to explore blurry categories of “sound effect” and “music,” and these questions of function and musicality are also relevant more widely in our media-filled world.</t>
+  </si>
+  <si>
+    <t>Musical Sound Effects (and Sound-Effect Music) in Video Games</t>
+  </si>
+  <si>
+    <t>emedina-gray</t>
+  </si>
+  <si>
+    <t>TeenDayMUN</t>
+  </si>
+  <si>
+    <t>a musicology</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2499,6 +2538,64 @@
         <v>267</v>
       </c>
     </row>
+    <row r="44" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44">
+        <v>2024</v>
+      </c>
+      <c r="D44" t="s">
+        <v>274</v>
+      </c>
+      <c r="E44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F44" t="s">
+        <v>280</v>
+      </c>
+      <c r="G44" t="s">
+        <v>277</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45">
+        <v>2024</v>
+      </c>
+      <c r="D45" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" t="s">
+        <v>269</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I45" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C74DF8-8523-482F-BEEE-060FFF7B9B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AAB901-B1AA-4686-8502-1E86C3703F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -883,9 +883,6 @@
     <t>Members of the TeenDay Ithaca Model United Nations Team</t>
   </si>
   <si>
-    <t>a political debate</t>
-  </si>
-  <si>
     <t>Dr. Elizabeth Medina-Gray</t>
   </si>
   <si>
@@ -905,6 +902,9 @@
   </si>
   <si>
     <t>a musicology</t>
+  </si>
+  <si>
+    <t>a political dialogue</t>
   </si>
 </sst>
 </file>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2549,22 +2549,22 @@
         <v>2024</v>
       </c>
       <c r="D44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" t="s">
         <v>274</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>279</v>
+      </c>
+      <c r="G44" t="s">
+        <v>276</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F44" t="s">
-        <v>280</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>277</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I44" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -2584,7 +2584,7 @@
         <v>272</v>
       </c>
       <c r="F45" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G45" t="s">
         <v>269</v>
@@ -2593,7 +2593,7 @@
         <v>270</v>
       </c>
       <c r="I45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\ithacapublicworks.github.io\generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfrancis\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AAB901-B1AA-4686-8502-1E86C3703F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D045A3CF-1FC4-4810-8C87-94E154B2AF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="294">
   <si>
     <t>speaker</t>
   </si>
@@ -905,6 +905,47 @@
   </si>
   <si>
     <t>a political dialogue</t>
+  </si>
+  <si>
+    <t>Earth Source Heat: Digging Deep for Climate Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We know we need to get off fossil fuels, but how do you do it if you are a 30,000-person research university? Cornell is investigating Deep Direct Use Geothermal Energy as a possible path to meeting carbon free campus heating needs. If you go deep enough (10,000’ below the surface), the heat is there – but how to get it?
+</t>
+  </si>
+  <si>
+    <t>Wayne Bezner Kerr</t>
+  </si>
+  <si>
+    <t>Cornell Earth Source Heat Program Manager</t>
+  </si>
+  <si>
+    <t>wbezner-kerr</t>
+  </si>
+  <si>
+    <t>Pete Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersubjectivity / Constructing and Reconstructing Social Constructs
+</t>
+  </si>
+  <si>
+    <t>an environmental technologies</t>
+  </si>
+  <si>
+    <t>a social philosophy</t>
+  </si>
+  <si>
+    <t>As human beings, we live in three kinds of reality. The single physical reality we all share full of rocks, trees, and beautiful gorges to walk through and appreciate them is objective. The internal mental reality we each have in our own mind made of things we remember, believe, and imagine is subjective. The social realities we share with different groups of people that are made out of things we agree about are intersubjective. These social realities influence our behavior and how we feel about life all the time, but we are rarely explicit about their nature. It took me till I was 54 to even learn the term intersubjectivity existed, and I’ve been a social philosophy nerd all my life. This talk is intended to expose the concept of intersubjectivity more fully in the hope that dragging it in to the light will give people who hear the talk a fresh and interesting perspective on how we build and update the social arrangements within which we live.</t>
+  </si>
+  <si>
+    <t>pmiller</t>
+  </si>
+  <si>
+    <t>October 3rd</t>
+  </si>
+  <si>
+    <t>Professor of Engineering</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1024,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1279,13 +1320,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="24.81640625" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
@@ -2596,6 +2637,64 @@
         <v>278</v>
       </c>
     </row>
+    <row r="46" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46">
+        <v>2024</v>
+      </c>
+      <c r="D46" t="s">
+        <v>283</v>
+      </c>
+      <c r="E46" t="s">
+        <v>284</v>
+      </c>
+      <c r="F46" t="s">
+        <v>288</v>
+      </c>
+      <c r="G46" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>292</v>
+      </c>
+      <c r="C47">
+        <v>2024</v>
+      </c>
+      <c r="D47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" t="s">
+        <v>289</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I47" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfrancis\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D045A3CF-1FC4-4810-8C87-94E154B2AF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884E404A-D4AB-4E17-B403-6847D9B93EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -910,42 +910,40 @@
     <t>Earth Source Heat: Digging Deep for Climate Solutions</t>
   </si>
   <si>
-    <t xml:space="preserve">We know we need to get off fossil fuels, but how do you do it if you are a 30,000-person research university? Cornell is investigating Deep Direct Use Geothermal Energy as a possible path to meeting carbon free campus heating needs. If you go deep enough (10,000’ below the surface), the heat is there – but how to get it?
-</t>
-  </si>
-  <si>
     <t>Wayne Bezner Kerr</t>
   </si>
   <si>
     <t>Cornell Earth Source Heat Program Manager</t>
   </si>
   <si>
+    <t>Pete Miller</t>
+  </si>
+  <si>
+    <t>an environmental technologies</t>
+  </si>
+  <si>
+    <t>a social philosophy</t>
+  </si>
+  <si>
+    <t>As human beings, we live in three kinds of reality. The single physical reality we all share full of rocks, trees, and beautiful gorges to walk through and appreciate them is objective. The internal mental reality we each have in our own mind made of things we remember, believe, and imagine is subjective. The social realities we share with different groups of people that are made out of things we agree about are intersubjective. These social realities influence our behavior and how we feel about life all the time, but we are rarely explicit about their nature. It took me till I was 54 to even learn the term intersubjectivity existed, and I’ve been a social philosophy nerd all my life. This talk is intended to expose the concept of intersubjectivity more fully in the hope that dragging it in to the light will give people who hear the talk a fresh and interesting perspective on how we build and update the social arrangements within which we live.</t>
+  </si>
+  <si>
+    <t>pmiller</t>
+  </si>
+  <si>
+    <t>October 3rd</t>
+  </si>
+  <si>
+    <t>Local Expert</t>
+  </si>
+  <si>
+    <t>We know we need to get off fossil fuels, but how do you do it if you are a 30,000-person research university? Cornell is investigating Deep Direct Use Geothermal Energy as a possible path to meeting carbon free campus heating needs. If you go deep enough (10,000’ below the surface), the heat is there – but how to get it?</t>
+  </si>
+  <si>
     <t>wbezner-kerr</t>
   </si>
   <si>
-    <t>Pete Miller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersubjectivity / Constructing and Reconstructing Social Constructs
-</t>
-  </si>
-  <si>
-    <t>an environmental technologies</t>
-  </si>
-  <si>
-    <t>a social philosophy</t>
-  </si>
-  <si>
-    <t>As human beings, we live in three kinds of reality. The single physical reality we all share full of rocks, trees, and beautiful gorges to walk through and appreciate them is objective. The internal mental reality we each have in our own mind made of things we remember, believe, and imagine is subjective. The social realities we share with different groups of people that are made out of things we agree about are intersubjective. These social realities influence our behavior and how we feel about life all the time, but we are rarely explicit about their nature. It took me till I was 54 to even learn the term intersubjectivity existed, and I’ve been a social philosophy nerd all my life. This talk is intended to expose the concept of intersubjectivity more fully in the hope that dragging it in to the light will give people who hear the talk a fresh and interesting perspective on how we build and update the social arrangements within which we live.</t>
-  </si>
-  <si>
-    <t>pmiller</t>
-  </si>
-  <si>
-    <t>October 3rd</t>
-  </si>
-  <si>
-    <t>Professor of Engineering</t>
+    <t>Intersubjectivity / Constructing and Reconstructing Social Constructs</t>
   </si>
 </sst>
 </file>
@@ -1320,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2637,64 +2635,65 @@
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C46">
         <v>2024</v>
       </c>
       <c r="D46" t="s">
+        <v>282</v>
+      </c>
+      <c r="E46" t="s">
         <v>283</v>
       </c>
-      <c r="E46" t="s">
-        <v>284</v>
-      </c>
       <c r="F46" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G46" t="s">
         <v>281</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="I46" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C47">
         <v>2024</v>
       </c>
       <c r="D47" t="s">
+        <v>284</v>
+      </c>
+      <c r="E47" t="s">
+        <v>290</v>
+      </c>
+      <c r="F47" t="s">
         <v>286</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>293</v>
       </c>
-      <c r="F47" t="s">
-        <v>289</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="I47" t="s">
-        <v>291</v>
-      </c>
-    </row>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfrancis\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884E404A-D4AB-4E17-B403-6847D9B93EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D39FD-CB2F-49AF-B70B-D5D12D64E7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="306">
   <si>
     <t>speaker</t>
   </si>
@@ -809,10 +809,6 @@
     <t>rabutsa</t>
   </si>
   <si>
-    <t>PhD Candidate in the Department of Performing and
-Media Arts at Cornell University</t>
-  </si>
-  <si>
     <t>Naman Agrawal</t>
   </si>
   <si>
@@ -898,9 +894,6 @@
     <t>emedina-gray</t>
   </si>
   <si>
-    <t>TeenDayMUN</t>
-  </si>
-  <si>
     <t>a musicology</t>
   </si>
   <si>
@@ -944,6 +937,49 @@
   </si>
   <si>
     <t>Intersubjectivity / Constructing and Reconstructing Social Constructs</t>
+  </si>
+  <si>
+    <t>teen-day-mun</t>
+  </si>
+  <si>
+    <t>November 6th</t>
+  </si>
+  <si>
+    <t>Fit and Fabulous Feathers: How Birds Show Us Love Isn’t Blind</t>
+  </si>
+  <si>
+    <t>an ornithology</t>
+  </si>
+  <si>
+    <t>Dr. Sarah Khalil</t>
+  </si>
+  <si>
+    <t>Postdoctoral Fellow at the Cornell Lab of Ornithology</t>
+  </si>
+  <si>
+    <t>In the vibrant world of avian courtship, love takes on a dazzling array of forms. This talk explores the intricate and often surprising ways that birds display their “affection”, revealing that their choices in mates are far from random. From the flamboyant plumage of peacocks to the elaborate dances of birds-of-paradise, we’ll delve into the evolutionary strategies that underpin these fabulous feathers and bizarre behaviors, and why more often than not, it pays to be choosy. Join us for a journey into the world of birds, where love is not just a feeling, but a complex interplay of signals and selection that challenges the notion that love is blind.</t>
+  </si>
+  <si>
+    <t>skhalil</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence (AI) &amp; Theatre</t>
+  </si>
+  <si>
+    <t>Have you ever thought about how AI could perform on stage? While some artists fear loss of originality and control with AI, others explore recombinant and posthuman modes of creativity For example, what kind of visual representations of AI can we create in theatre? How can we use AI to augment performance possibilities? Playwright and ARTivist &lt;b&gt;Saviana Stanescu&lt;/b&gt; will talk about (co)authoring various theatre shows for which she created/wrote Artificial Intelligence characters and stories. Media artist and performance theorist &lt;b&gt;Jon McKenzie&lt;/b&gt; will present LifeLines BFX: Blavatsky Freud Experience - an experimental video staging an encounter of historical figures provoked by contemporary events. Its “traumaturgy” uses literate and digital AI for making cures with different mediums.</t>
+  </si>
+  <si>
+    <t>Saviana Stanescu and Jon McKenzie</t>
+  </si>
+  <si>
+    <t>sstanescu_jmckenzie</t>
+  </si>
+  <si>
+    <t>PhD Candidate in the Department of Performing and Media Arts at Cornell University
+Media Arts at Cornell University</t>
+  </si>
+  <si>
+    <t>Ithaca-Based Playwright and Professor of Practice the Department of Literatures in English at Cornell University</t>
   </si>
 </sst>
 </file>
@@ -993,16 +1029,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="fill" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,15 +1363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="128" zoomScaleNormal="19" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1355,7 +1400,7 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1363,28 +1408,28 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2">
         <v>2022</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1392,28 +1437,28 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1421,28 +1466,28 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4">
         <v>2022</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1450,28 +1495,28 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1479,28 +1524,28 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C6">
         <v>2022</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1508,28 +1553,28 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1537,28 +1582,28 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C8">
         <v>2023</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1566,28 +1611,28 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C9">
         <v>2023</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1595,28 +1640,28 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C10">
         <v>2023</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1624,28 +1669,28 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C11">
         <v>2023</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1653,28 +1698,28 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C12">
         <v>2023</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1682,28 +1727,28 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C13">
         <v>2023</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1711,28 +1756,28 @@
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C14">
         <v>2023</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1740,28 +1785,28 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C15">
         <v>2023</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1769,28 +1814,28 @@
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C16">
         <v>2023</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1798,28 +1843,28 @@
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C17">
         <v>2023</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1827,28 +1872,28 @@
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C18">
         <v>2023</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1856,28 +1901,28 @@
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C19">
         <v>2023</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1885,28 +1930,28 @@
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C20">
         <v>2023</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1914,28 +1959,28 @@
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C21">
         <v>2023</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1943,28 +1988,28 @@
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C22">
         <v>2023</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1972,28 +2017,28 @@
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C23">
         <v>2023</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2001,28 +2046,28 @@
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C24">
         <v>2023</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2030,28 +2075,28 @@
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C25">
         <v>2023</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2059,28 +2104,28 @@
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C26">
         <v>2023</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2088,28 +2133,28 @@
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C27">
         <v>2023</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2117,28 +2162,28 @@
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C28">
         <v>2023</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2146,28 +2191,28 @@
       <c r="A29">
         <v>14</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C29">
         <v>2023</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2175,28 +2220,28 @@
       <c r="A30">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C30">
         <v>2024</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2204,28 +2249,28 @@
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C31">
         <v>2024</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2233,28 +2278,28 @@
       <c r="A32">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C32">
         <v>2024</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2262,181 +2307,181 @@
       <c r="A33">
         <v>16</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C33">
         <v>2024</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>17</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C34">
         <v>2024</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>17</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C35">
         <v>2024</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>18</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C36">
         <v>2024</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>18</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C37">
         <v>2024</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>19</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C38">
         <v>2024</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>19</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C39">
@@ -2445,255 +2490,312 @@
       <c r="D39" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>20</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C40">
         <v>2024</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="I40" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I40" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>20</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C41">
         <v>2024</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E41" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>21</v>
       </c>
-      <c r="B42" t="s">
-        <v>255</v>
+      <c r="B42" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="C42">
         <v>2024</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F42" t="s">
-        <v>264</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I42" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>21</v>
       </c>
-      <c r="B43" t="s">
-        <v>255</v>
+      <c r="B43" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="C43">
         <v>2024</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F43" t="s">
+      <c r="I43" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H43" t="s">
-        <v>263</v>
-      </c>
-      <c r="I43" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
-        <v>268</v>
+      <c r="B44" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C44">
         <v>2024</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F44" t="s">
-        <v>279</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="I44" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I44" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>22</v>
       </c>
-      <c r="B45" t="s">
-        <v>268</v>
+      <c r="B45" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C45">
         <v>2024</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E45" t="s">
-        <v>272</v>
-      </c>
-      <c r="F45" t="s">
-        <v>280</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I45" t="s">
-        <v>278</v>
+      <c r="I45" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>23</v>
       </c>
-      <c r="B46" t="s">
-        <v>289</v>
+      <c r="B46" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C46">
         <v>2024</v>
       </c>
-      <c r="D46" t="s">
-        <v>282</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F46" t="s">
-        <v>285</v>
-      </c>
-      <c r="G46" t="s">
-        <v>281</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I46" t="s">
-        <v>292</v>
+      <c r="G46" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>23</v>
       </c>
-      <c r="B47" t="s">
-        <v>289</v>
+      <c r="B47" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C47">
         <v>2024</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E47" t="s">
-        <v>290</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G47" t="s">
+    </row>
+    <row r="48" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="I47" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C48">
+        <v>2024</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>24</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C49">
+        <v>2024</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfrancis\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D39FD-CB2F-49AF-B70B-D5D12D64E7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C97D9F-8214-4367-9398-45FFCF1FF65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="318">
   <si>
     <t>speaker</t>
   </si>
@@ -980,6 +980,44 @@
   </si>
   <si>
     <t>Ithaca-Based Playwright and Professor of Practice the Department of Literatures in English at Cornell University</t>
+  </si>
+  <si>
+    <t>December 5th</t>
+  </si>
+  <si>
+    <t>Buz Barstow</t>
+  </si>
+  <si>
+    <t>Assistant Professor in  Biological and Environmental Engineering, Atkinson Center for Sustainability Senior Faculty Fellow, and Carl Sagan Institute Fellow</t>
+  </si>
+  <si>
+    <t>What’s Next in Systems and Synthetic Biology for Sustainable Energy?</t>
+  </si>
+  <si>
+    <t>Synthetic biology has enormous potential for building sustainability and clean energy technologies. However, we’re unable to take advantage of much of this potential because our knowledge of much of the most interesting things that nature has to offer remain limited. I’ll start this talk by reviewing a few breakthroughs that my lab has made over the past few years in biomining rare earth elements for sustainable energy technologies, microbial electroactivity and upgrading photosynthesis, and new mechanisms for genetic engineering. Then, I’ll discuss what my lab intends to do next, including building a Microbe-Mineral Atlas to discover new mechanisms that will allow highly efficient mining of metals; development of hyper-engineer able microbes; and how to use them to build high-performance autotrophic microbes.</t>
+  </si>
+  <si>
+    <t>bbarstow</t>
+  </si>
+  <si>
+    <t>On Strike Against God: Reflecting on 1970s Feminism Today</t>
+  </si>
+  <si>
+    <t>a publishing</t>
+  </si>
+  <si>
+    <t>PhD Candidate in the Department of Literatures in English at Cornell University</t>
+  </si>
+  <si>
+    <t>Alec Pollak</t>
+  </si>
+  <si>
+    <t>apollak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Let's be reasonable. Let's demand the impossible." These words end On Strike Against God, a slim, long-lost lesbian novel set in Ithaca New York, by feminist science-fiction author Joanna Russ. Out of print for 40 years and now, finally, available again through the Feminist Press, On Strike Against God follows Esther, a Cornell English professor, as she has her first lesbian love affair and struggles to make sense of her life anew. 
+On Strike Against God is an artifact of 1970s feminism, in good ways and bad: it's angry, controversial, and blunt. It's uninterested in nuance. It doesn't pull punches, and it doesn't apologize. It seeks to agitate, challenge, and offend. In so many ways, it's an easy target--ripe for critique. And yet, in a post-Roe v. Wade world, and on the precipice Trump 2.0, much of the novel rings urgently--and eerily--true today. 
+What lessons can we learn from generations of feminists past, as history's clocks turn backwards? Alec Pollak recounts the process of rescuing, editing, and republishing On Strike Against God in 2024, and considers how, in light of November's election, we might engage feminist writings of yesteryear. </t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -1048,6 +1086,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1363,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="128" zoomScaleNormal="19" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2796,6 +2837,64 @@
         <v>303</v>
       </c>
     </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50">
+        <v>2024</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C51">
+        <v>2024</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfrancis\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C97D9F-8214-4367-9398-45FFCF1FF65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09BC35C-4122-4069-BF99-3F9322FDE545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="331">
   <si>
     <t>speaker</t>
   </si>
@@ -1018,6 +1018,45 @@
     <t xml:space="preserve">"Let's be reasonable. Let's demand the impossible." These words end On Strike Against God, a slim, long-lost lesbian novel set in Ithaca New York, by feminist science-fiction author Joanna Russ. Out of print for 40 years and now, finally, available again through the Feminist Press, On Strike Against God follows Esther, a Cornell English professor, as she has her first lesbian love affair and struggles to make sense of her life anew. 
 On Strike Against God is an artifact of 1970s feminism, in good ways and bad: it's angry, controversial, and blunt. It's uninterested in nuance. It doesn't pull punches, and it doesn't apologize. It seeks to agitate, challenge, and offend. In so many ways, it's an easy target--ripe for critique. And yet, in a post-Roe v. Wade world, and on the precipice Trump 2.0, much of the novel rings urgently--and eerily--true today. 
 What lessons can we learn from generations of feminists past, as history's clocks turn backwards? Alec Pollak recounts the process of rescuing, editing, and republishing On Strike Against God in 2024, and considers how, in light of November's election, we might engage feminist writings of yesteryear. </t>
+  </si>
+  <si>
+    <t>February 5th</t>
+  </si>
+  <si>
+    <t>Jonny Robert Lawrence</t>
+  </si>
+  <si>
+    <t>Assistant Professor in the Department of Near Eastern Studies at Cornell</t>
+  </si>
+  <si>
+    <t>a medieval studies</t>
+  </si>
+  <si>
+    <t>Down Bad in Medieval Baghdad, or a Tale as Old as Time</t>
+  </si>
+  <si>
+    <t>In the early 10th century, a man called Ibn Dāwūd died from love – or, that’s what the biographers tell us, at least. Ibn Dāwūd lived and died in Baghdad, at the time one of the world’s major centres of art, culture, science, and mathematics. He was a strict jurist and legal thinker, but also a flâneur, an aesthete and a poet-author. Upon meeting a beautiful local apothecary, Muḥammad ibn Jāmiʿ (or, was it Wahb ibn Jāmiʿ? The sources aren’t sure…), he falls madly in love and the pair embark upon a sweet, seemingly reciprocal relationship. Yet, love’s course is not as easy as it may seem and all sorts of personal, social and legal problems might get in the way… with fatal consequences. In this talk, we will be meeting our medieval forebears where they are at, and exploring how their tales of overwhelming passion, death and destruction can speak to us in the contemporary world.</t>
+  </si>
+  <si>
+    <t>jlawrence</t>
+  </si>
+  <si>
+    <t>Stephanie Zuber</t>
+  </si>
+  <si>
+    <t>Rethinking Sex: What We Know About the Sexual Response Cycle and How It Can Improve Your Bedroom Tonight</t>
+  </si>
+  <si>
+    <t>Ever wondered why your body doesn’t always respond the way you expect in the bedroom? The answer lies in the science of the sexual response cycle. Join us for a brief dive into what we now know about sexual arousal, desire, and satisfaction—and how you can use this knowledge to improve your sex life tonight. You’ll learn about the revolutionary "dual control model" of sexual arousal, a game-changing framework that radically shifts the way we think about horniness. Whether you're looking to reignite the spark, enhance intimacy, or simply better understand your own body, this talk will offer practical insights you can start using right away!</t>
+  </si>
+  <si>
+    <t>szuber</t>
+  </si>
+  <si>
+    <t>A Local Sex Therapist (LMHC, MS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a public health</t>
   </si>
 </sst>
 </file>
@@ -1404,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="128" zoomScaleNormal="19" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="128" zoomScaleNormal="19" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2895,6 +2934,64 @@
         <v>316</v>
       </c>
     </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>26</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C52">
+        <v>2025</v>
+      </c>
+      <c r="D52" t="s">
+        <v>319</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>26</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C53">
+        <v>2025</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfrancis\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09BC35C-4122-4069-BF99-3F9322FDE545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF28A8D-A922-4176-AA2A-DD9CFB165943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="344">
   <si>
     <t>speaker</t>
   </si>
@@ -1057,6 +1057,49 @@
   </si>
   <si>
     <t xml:space="preserve"> a public health</t>
+  </si>
+  <si>
+    <t>March 5th</t>
+  </si>
+  <si>
+    <t>Nature’s Secret to Spinal Cord Healing: What Goldfish Can Teach Us About Recovery</t>
+  </si>
+  <si>
+    <t>Cátia P. Dombaxe</t>
+  </si>
+  <si>
+    <t>PhD Candidate in Biomedical Engineering at Cornell University</t>
+  </si>
+  <si>
+    <t>a health sciences</t>
+  </si>
+  <si>
+    <t>cdombaxe</t>
+  </si>
+  <si>
+    <t>Materializing Alliances: How Artworks Can Act as Diplomats in Anishinaabe Politics</t>
+  </si>
+  <si>
+    <t>Noah Mapes</t>
+  </si>
+  <si>
+    <t>It is important for the field of art history to celebrate the numerous histories of aesthetics and worldviews that converge, diverge, and create the United States. This talk aims to expand the scopes of visual and material analysis by embracing Anishinaabe beliefs that recognize the ensouled animacy of animals and certain objects as non-human beings. Specifically, with the aid of Anishinaabe origin stories and principles such as mino-bimaadiziwin and biskaabiiyang, this talk shares how select artworks and objects act as political agents, entering into and influencing human and non-human compacts for the empowerment of Anishinaabe diplomacy.</t>
+  </si>
+  <si>
+    <t>nmapes</t>
+  </si>
+  <si>
+    <t>an art history</t>
+  </si>
+  <si>
+    <t>In the intricate world of nerve regeneration, some animals have a remarkable ability to heal what seems impossible — like goldfish, which can regenerate their spinal cords after injury. But what if we could unlock this same potential in humans? This talk dives into the fascinating science behind my research, where we use bioengineered materials to deliver nature-inspired
+regenerative proteins and enzymes, aiming to help damaged spinal cords recover. By blending
+biomaterials, neuroscience, and the wisdom of evolution, we’re exploring a future where spinal
+cord injuries no longer mean a lifetime of paralysis. Join me as we uncover how goldfish might
+hold the key to a medical breakthrough that could change lives.</t>
+  </si>
+  <si>
+    <t>PhD Candidate in the Department of History of Art and Visual Studies at Cornell University</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -1128,6 +1171,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1443,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="128" zoomScaleNormal="19" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="D54" zoomScale="128" zoomScaleNormal="19" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2992,6 +3039,64 @@
         <v>328</v>
       </c>
     </row>
+    <row r="54" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>27</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C54">
+        <v>2025</v>
+      </c>
+      <c r="D54" t="s">
+        <v>333</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C55">
+        <v>2025</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/generator/public works.xlsx
+++ b/generator/public works.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfrancis\ithacapublicworks.github.io\generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF28A8D-A922-4176-AA2A-DD9CFB165943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35677C1-1CD8-483C-9B8F-3F944C2DDCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E1829570-05EC-4F9A-A973-1191B70B70D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="357">
   <si>
     <t>speaker</t>
   </si>
@@ -1100,6 +1100,45 @@
   </si>
   <si>
     <t>PhD Candidate in the Department of History of Art and Visual Studies at Cornell University</t>
+  </si>
+  <si>
+    <t>April 2nd</t>
+  </si>
+  <si>
+    <t>Rediet Lewi</t>
+  </si>
+  <si>
+    <t>PhD Student in Anthopology at Cornell University</t>
+  </si>
+  <si>
+    <t>an anthropology</t>
+  </si>
+  <si>
+    <t>Anthropology and Fiction: Representing Distress on the Screen</t>
+  </si>
+  <si>
+    <t>Mental health has been an increasingly popular topic in our current public conversations. Even so, there continues to be contentious disagreements about how it is understood and expressed. Through a deeper look at belief systems that shape not only different cultures, but also biomedicine, I argue that knowledge about distress is not neutral. Instead, it is influenced by assumptions about nature of humanity in general but also by biased views about the nature of particular social groups. Anthropology and its ethnographic methods allow us to examine the complex layers of factors that color experiences of distress. In this talk, I ask, how do we best capture such experiences of distress? I explore the possibilities that are opened up by incorporating fiction into social science research and communication.</t>
+  </si>
+  <si>
+    <t>rlewi</t>
+  </si>
+  <si>
+    <t>Aalayna R. Green</t>
+  </si>
+  <si>
+    <t>PhD Candidate in Natural Resources &amp; the Environment</t>
+  </si>
+  <si>
+    <t>an environmentalist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if everything you ever knew about conservation was wrong? This talk explores the histories and modern practices of conservation from a perspective that likely wasn't taught in your classroom. From human zoos to wildlife trafficking, we'll delve into the hidden underbelly of conservation science and practice. We'll also explore avenues for a more caring and just future, including how we can all take steps to become better conservationists ourselves. </t>
+  </si>
+  <si>
+    <t>Hot Girl Conservationist: How to Be a More Educated and More Caring Conservationist</t>
+  </si>
+  <si>
+    <t>agreen</t>
   </si>
 </sst>
 </file>
@@ -1490,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859F76-284E-4154-B5CC-2AAD28AB7940}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D54" zoomScale="128" zoomScaleNormal="19" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="97" zoomScaleNormal="19" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3097,6 +3136,64 @@
         <v>340</v>
       </c>
     </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>28</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C56">
+        <v>2025</v>
+      </c>
+      <c r="D56" t="s">
+        <v>345</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G56" t="s">
+        <v>348</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>28</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C57">
+        <v>2025</v>
+      </c>
+      <c r="D57" t="s">
+        <v>351</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
